--- a/SCLPsolver/results_reentrant_new2.xlsx
+++ b/SCLPsolver/results_reentrant_new2.xlsx
@@ -1,28 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SCLP-python\SCLPsolver\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataD\Work\CERBERO\CLP\SCLPsolver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB16803F-4B2F-4D4F-8D34-55128135AA20}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89CE861F-C929-47A4-8D8A-FC85EA8E4DB5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640"/>
+    <workbookView xWindow="2100" yWindow="4380" windowWidth="25290" windowHeight="11655" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="summary" sheetId="3" r:id="rId1"/>
-    <sheet name="calculation" sheetId="2" r:id="rId2"/>
-    <sheet name="results_reentrant_new2" sheetId="1" r:id="rId3"/>
+    <sheet name="summary (2)" sheetId="4" r:id="rId1"/>
+    <sheet name="summary" sheetId="3" r:id="rId2"/>
+    <sheet name="calculation" sheetId="2" r:id="rId3"/>
+    <sheet name="results_reentrant_new2" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="92">
   <si>
     <t>file</t>
   </si>
@@ -233,11 +242,84 @@
   <si>
     <t>simple_reentrant_K1200_I60_T2400_ccs0_cs10_alpha_rate10.08_alpha_rate20.045_seed1009_data.dat</t>
   </si>
+  <si>
+    <t>servers</t>
+  </si>
+  <si>
+    <t>buffers</t>
+  </si>
+  <si>
+    <t>simple_reentrant_K600_I30_T1200_ccs0_cs10_alpha_rate10.08_alpha_rate20.045_seed1000_data.dat</t>
+  </si>
+  <si>
+    <t>simple_reentrant_K600_I30_T1200_ccs0_cs10_alpha_rate10.08_alpha_rate20.045_seed1001_data.dat</t>
+  </si>
+  <si>
+    <t>simple_reentrant_K600_I30_T1200_ccs0_cs10_alpha_rate10.08_alpha_rate20.045_seed1002_data.dat</t>
+  </si>
+  <si>
+    <t>simple_reentrant_K600_I30_T1200_ccs0_cs10_alpha_rate10.08_alpha_rate20.045_seed1003_data.dat</t>
+  </si>
+  <si>
+    <t>simple_reentrant_K600_I30_T1200_ccs0_cs10_alpha_rate10.08_alpha_rate20.045_seed1004_data.dat</t>
+  </si>
+  <si>
+    <t>simple_reentrant_K600_I30_T1200_ccs0_cs10_alpha_rate10.08_alpha_rate20.045_seed1005_data.dat</t>
+  </si>
+  <si>
+    <t>simple_reentrant_K600_I30_T1200_ccs0_cs10_alpha_rate10.08_alpha_rate20.045_seed1006_data.dat</t>
+  </si>
+  <si>
+    <t>simple_reentrant_K600_I30_T1200_ccs0_cs10_alpha_rate10.08_alpha_rate20.045_seed1007_data.dat</t>
+  </si>
+  <si>
+    <t>simple_reentrant_K600_I30_T1200_ccs0_cs10_alpha_rate10.08_alpha_rate20.045_seed1008_data.dat</t>
+  </si>
+  <si>
+    <t>simple_reentrant_K600_I30_T1200_ccs0_cs10_alpha_rate10.08_alpha_rate20.045_seed1009_data.dat</t>
+  </si>
+  <si>
+    <t>simple_reentrant_K1000_I50_T2000_ccs0_cs10_alpha_rate10.08_alpha_rate20.045_seed1000_data.dat</t>
+  </si>
+  <si>
+    <t>simple_reentrant_K1000_I50_T2000_ccs0_cs10_alpha_rate10.08_alpha_rate20.045_seed1001_data.dat</t>
+  </si>
+  <si>
+    <t>simple_reentrant_K1000_I50_T2000_ccs0_cs10_alpha_rate10.08_alpha_rate20.045_seed1002_data.dat</t>
+  </si>
+  <si>
+    <t>simple_reentrant_K1000_I50_T2000_ccs0_cs10_alpha_rate10.08_alpha_rate20.045_seed1003_data.dat</t>
+  </si>
+  <si>
+    <t>simple_reentrant_K1000_I50_T2000_ccs0_cs10_alpha_rate10.08_alpha_rate20.045_seed1004_data.dat</t>
+  </si>
+  <si>
+    <t>simple_reentrant_K1000_I50_T2000_ccs0_cs10_alpha_rate10.08_alpha_rate20.045_seed1005_data.dat</t>
+  </si>
+  <si>
+    <t>simple_reentrant_K1000_I50_T2000_ccs0_cs10_alpha_rate10.08_alpha_rate20.045_seed1006_data.dat</t>
+  </si>
+  <si>
+    <t>simple_reentrant_K1000_I50_T2000_ccs0_cs10_alpha_rate10.08_alpha_rate20.045_seed1007_data.dat</t>
+  </si>
+  <si>
+    <t>simple_reentrant_K1000_I50_T2000_ccs0_cs10_alpha_rate10.08_alpha_rate20.045_seed1008_data.dat</t>
+  </si>
+  <si>
+    <t>simple_reentrant_K1000_I50_T2000_ccs0_cs10_alpha_rate10.08_alpha_rate20.045_seed1009_data.dat</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="5">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.00000"/>
+    <numFmt numFmtId="168" formatCode="#,##0.000"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -715,9 +797,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -774,6 +862,2731 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'summary (2)'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'summary (2)'!$D$1:$G$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'summary (2)'!$D$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.68466058138258867</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.2994469946519499E-2</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.0000">
+                  <c:v>4.5166979876594873E-3</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00000">
+                  <c:v>1.663769877522818E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4D87-461C-8213-75599B3485AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'summary (2)'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'summary (2)'!$D$1:$G$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'summary (2)'!$D$3:$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="0.000">
+                  <c:v>0.51226066469999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.8211365200000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.0000">
+                  <c:v>3.6583678999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00000">
+                  <c:v>1.5666930000000001E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4D87-461C-8213-75599B3485AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'summary (2)'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'summary (2)'!$D$1:$G$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'summary (2)'!$D$4:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.31586737732094539</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0042048441949892E-2</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.0000">
+                  <c:v>2.3978238227922019E-3</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00000">
+                  <c:v>1.1411371380863635E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4D87-461C-8213-75599B3485AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'summary (2)'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'summary (2)'!$D$1:$G$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'summary (2)'!$D$5:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.25395554640000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4355514799999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.0000">
+                  <c:v>1.9965521E-3</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00000">
+                  <c:v>1.0183539999999999E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-4D87-461C-8213-75599B3485AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'summary (2)'!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'summary (2)'!$D$1:$G$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'summary (2)'!$D$6:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.19924074594833871</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9223146347092782E-2</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.0000">
+                  <c:v>1.6186787274951879E-3</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00000">
+                  <c:v>8.7643734756793427E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-4D87-461C-8213-75599B3485AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="782769456"/>
+        <c:axId val="50449152"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="782769456"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>discretizaTion</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-IL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="50449152"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="50449152"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="1.0000000000000003E-4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>relative error</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-IL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="782769456"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-IL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'summary (2)'!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'summary (2)'!$M$1:$P$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'summary (2)'!$M$2:$P$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="0.0000">
+                  <c:v>2.5315228283677632E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1358232646218886</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9133767597192719</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00">
+                  <c:v>58.499778939838578</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5783-4154-B283-BE69EE827B63}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'summary (2)'!$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'summary (2)'!$M$1:$P$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'summary (2)'!$M$3:$P$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="0.0000">
+                  <c:v>1.0895375165380066E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.8388059573771377E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.76433765387213692</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00">
+                  <c:v>26.118488370195745</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-5783-4154-B283-BE69EE827B63}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'summary (2)'!$J$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'summary (2)'!$M$1:$P$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'summary (2)'!$M$4:$P$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="0.0000">
+                  <c:v>6.3216507110592218E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.3713772912265539E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.61166423997864328</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00">
+                  <c:v>17.716390575370411</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-5783-4154-B283-BE69EE827B63}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'summary (2)'!$J$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'summary (2)'!$M$1:$P$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'summary (2)'!$M$5:$P$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="0.0000">
+                  <c:v>4.6016291656544358E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.429059311432533E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.51345114662605973</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00">
+                  <c:v>17.980969470623897</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-5783-4154-B283-BE69EE827B63}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'summary (2)'!$J$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'summary (2)'!$M$1:$P$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'summary (2)'!$M$6:$P$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="0.0000">
+                  <c:v>2.8284367468809587E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7040040186137063E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.23926041638487994</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00">
+                  <c:v>7.7106159996156123</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-5783-4154-B283-BE69EE827B63}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="782769456"/>
+        <c:axId val="50449152"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="782769456"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>discretizaTion</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-IL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="50449152"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="50449152"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="1.0000000000000002E-3"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>relative TIME</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-IL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="782769456"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-IL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="241">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="241">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>14286</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A827580-7174-44F4-867B-C5676631759B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>14286</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54C4FAA1-0238-4110-9A5C-1DA54D0E4B72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1072,178 +3885,572 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB4C9674-133F-42FE-90D7-EE809F6581C5}">
+  <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>10</v>
+      </c>
+      <c r="F1">
+        <v>100</v>
+      </c>
+      <c r="G1">
+        <v>1000</v>
+      </c>
+      <c r="J1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1">
+        <v>1</v>
+      </c>
+      <c r="N1">
+        <v>10</v>
+      </c>
+      <c r="O1">
+        <v>100</v>
+      </c>
+      <c r="P1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>20</v>
       </c>
-      <c r="G1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L1" t="s">
-        <v>38</v>
+      <c r="B2">
+        <v>400</v>
+      </c>
+      <c r="C2">
+        <v>800</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.68466058138258867</v>
+      </c>
+      <c r="E2" s="2">
+        <v>6.2994469946519499E-2</v>
+      </c>
+      <c r="F2" s="4">
+        <v>4.5166979876594873E-3</v>
+      </c>
+      <c r="G2" s="5">
+        <v>1.663769877522818E-4</v>
+      </c>
+      <c r="J2">
+        <v>20</v>
+      </c>
+      <c r="K2">
+        <v>400</v>
+      </c>
+      <c r="L2">
+        <v>800</v>
+      </c>
+      <c r="M2" s="4">
+        <v>2.5315228283677632E-2</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0.1358232646218886</v>
+      </c>
+      <c r="O2" s="2">
+        <v>1.9133767597192719</v>
+      </c>
+      <c r="P2" s="6">
+        <v>58.499778939838578</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1.3821192264556839</v>
-      </c>
-      <c r="B2">
-        <v>587.5</v>
-      </c>
-      <c r="C2">
-        <v>406.7</v>
-      </c>
-      <c r="D2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>30</v>
+      </c>
+      <c r="B3">
+        <v>600</v>
+      </c>
+      <c r="C3">
+        <v>1200</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.51226066469999998</v>
+      </c>
+      <c r="E3" s="7">
+        <v>4.8211365200000002E-2</v>
+      </c>
+      <c r="F3" s="4">
+        <v>3.6583678999999999E-3</v>
+      </c>
+      <c r="G3" s="5">
+        <v>1.5666930000000001E-4</v>
+      </c>
+      <c r="J3">
+        <v>30</v>
+      </c>
+      <c r="K3">
+        <v>600</v>
+      </c>
+      <c r="L3">
+        <v>1200</v>
+      </c>
+      <c r="M3" s="4">
+        <v>1.0895375165380066E-2</v>
+      </c>
+      <c r="N3" s="2">
+        <v>5.8388059573771377E-2</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0.76433765387213692</v>
+      </c>
+      <c r="P3" s="6">
+        <v>26.118488370195745</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>40</v>
+      </c>
+      <c r="B4">
         <v>800</v>
       </c>
-      <c r="E2">
-        <v>0.68466058138258867</v>
-      </c>
-      <c r="F2">
-        <v>2.5315228283677632E-2</v>
-      </c>
-      <c r="G2">
-        <v>6.2994469946519499E-2</v>
-      </c>
-      <c r="H2">
-        <v>0.1358232646218886</v>
-      </c>
-      <c r="I2">
-        <v>4.5166979876594873E-3</v>
-      </c>
-      <c r="J2">
-        <v>1.9133767597192719</v>
-      </c>
-      <c r="K2">
-        <v>1.663769877522818E-4</v>
-      </c>
-      <c r="L2">
-        <v>58.499778939838578</v>
+      <c r="C4">
+        <v>1600</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.31586737732094539</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3.0042048441949892E-2</v>
+      </c>
+      <c r="F4" s="4">
+        <v>2.3978238227922019E-3</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1.1411371380863635E-4</v>
+      </c>
+      <c r="J4">
+        <v>40</v>
+      </c>
+      <c r="K4">
+        <v>800</v>
+      </c>
+      <c r="L4">
+        <v>1600</v>
+      </c>
+      <c r="M4" s="4">
+        <v>6.3216507110592218E-3</v>
+      </c>
+      <c r="N4" s="2">
+        <v>4.3713772912265539E-2</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0.61166423997864328</v>
+      </c>
+      <c r="P4" s="6">
+        <v>17.716390575370411</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>9.4712265491485397</v>
-      </c>
-      <c r="B3">
-        <v>1697.1</v>
-      </c>
-      <c r="C3">
-        <v>814.8</v>
-      </c>
-      <c r="D3">
-        <v>1600</v>
-      </c>
-      <c r="E3">
-        <v>0.31586737732094539</v>
-      </c>
-      <c r="F3">
-        <v>6.3216507110592218E-3</v>
-      </c>
-      <c r="G3">
-        <v>3.0042048441949892E-2</v>
-      </c>
-      <c r="H3">
-        <v>4.3713772912265539E-2</v>
-      </c>
-      <c r="I3">
-        <v>2.3978238227922019E-3</v>
-      </c>
-      <c r="J3">
-        <v>0.61166423997864328</v>
-      </c>
-      <c r="K3">
-        <v>1.1411371380863635E-4</v>
-      </c>
-      <c r="L3">
-        <v>17.716390575370411</v>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>50</v>
+      </c>
+      <c r="B5">
+        <v>1000</v>
+      </c>
+      <c r="C5">
+        <v>2000</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.25395554640000001</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2.4355514799999999E-2</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1.9965521E-3</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1.0183539999999999E-4</v>
+      </c>
+      <c r="J5">
+        <v>50</v>
+      </c>
+      <c r="K5">
+        <v>1000</v>
+      </c>
+      <c r="L5">
+        <v>2000</v>
+      </c>
+      <c r="M5" s="4">
+        <v>4.6016291656544358E-3</v>
+      </c>
+      <c r="N5" s="2">
+        <v>2.429059311432533E-2</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0.51345114662605973</v>
+      </c>
+      <c r="P5" s="6">
+        <v>17.980969470623897</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>35.951856803893989</v>
-      </c>
-      <c r="B4">
-        <v>3115.2</v>
-      </c>
-      <c r="C4">
-        <v>1213.5999999999999</v>
-      </c>
-      <c r="D4">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>60</v>
+      </c>
+      <c r="B6">
+        <v>1200</v>
+      </c>
+      <c r="C6">
         <v>2400</v>
       </c>
-      <c r="E4">
+      <c r="D6" s="2">
         <v>0.19924074594833871</v>
       </c>
-      <c r="F4">
+      <c r="E6" s="2">
+        <v>1.9223146347092782E-2</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1.6186787274951879E-3</v>
+      </c>
+      <c r="G6" s="5">
+        <v>8.7643734756793427E-5</v>
+      </c>
+      <c r="J6">
+        <v>60</v>
+      </c>
+      <c r="K6">
+        <v>1200</v>
+      </c>
+      <c r="L6">
+        <v>2400</v>
+      </c>
+      <c r="M6" s="4">
         <v>2.8284367468809587E-3</v>
       </c>
-      <c r="G4">
-        <v>1.9223146347092782E-2</v>
-      </c>
-      <c r="H4">
+      <c r="N6" s="2">
         <v>1.7040040186137063E-2</v>
       </c>
-      <c r="I4">
-        <v>1.6186787274951879E-3</v>
-      </c>
-      <c r="J4">
+      <c r="O6" s="2">
         <v>0.23926041638487994</v>
       </c>
-      <c r="K4">
-        <v>8.7643734756793427E-5</v>
-      </c>
-      <c r="L4">
+      <c r="P6" s="6">
         <v>7.7106159996156123</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Z37" sqref="Z37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:N5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <v>400</v>
+      </c>
+      <c r="C2">
+        <v>800</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1.3821192264556839</v>
+      </c>
+      <c r="E2" s="3">
+        <v>587.5</v>
+      </c>
+      <c r="F2" s="3">
+        <v>406.7</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.68466058138258867</v>
+      </c>
+      <c r="H2" s="4">
+        <v>2.5315228283677632E-2</v>
+      </c>
+      <c r="I2" s="2">
+        <v>6.2994469946519499E-2</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0.1358232646218886</v>
+      </c>
+      <c r="K2" s="4">
+        <v>4.5166979876594873E-3</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1.9133767597192719</v>
+      </c>
+      <c r="M2" s="5">
+        <v>1.663769877522818E-4</v>
+      </c>
+      <c r="N2" s="6">
+        <v>58.499778939838578</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>30</v>
+      </c>
+      <c r="B3">
+        <v>600</v>
+      </c>
+      <c r="C3">
+        <v>1200</v>
+      </c>
+      <c r="D3" s="2">
+        <v>4.6315665484000004</v>
+      </c>
+      <c r="E3">
+        <v>1237.2</v>
+      </c>
+      <c r="F3">
+        <v>616.9</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.51226066469999998</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1.0895375165380066E-2</v>
+      </c>
+      <c r="I3" s="7">
+        <v>4.8211365200000002E-2</v>
+      </c>
+      <c r="J3" s="2">
+        <v>5.8388059573771377E-2</v>
+      </c>
+      <c r="K3" s="4">
+        <v>3.6583678999999999E-3</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0.76433765387213692</v>
+      </c>
+      <c r="M3" s="5">
+        <v>1.5666930000000001E-4</v>
+      </c>
+      <c r="N3" s="6">
+        <v>26.118488370195745</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>40</v>
+      </c>
+      <c r="B4">
+        <v>800</v>
+      </c>
+      <c r="C4">
+        <v>1600</v>
+      </c>
+      <c r="D4" s="2">
+        <v>9.4712265491485397</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1697.1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>814.8</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.31586737732094539</v>
+      </c>
+      <c r="H4" s="4">
+        <v>6.3216507110592218E-3</v>
+      </c>
+      <c r="I4" s="2">
+        <v>3.0042048441949892E-2</v>
+      </c>
+      <c r="J4" s="2">
+        <v>4.3713772912265539E-2</v>
+      </c>
+      <c r="K4" s="4">
+        <v>2.3978238227922019E-3</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0.61166423997864328</v>
+      </c>
+      <c r="M4" s="5">
+        <v>1.1411371380863635E-4</v>
+      </c>
+      <c r="N4" s="6">
+        <v>17.716390575370411</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>50</v>
+      </c>
+      <c r="B5">
+        <v>1000</v>
+      </c>
+      <c r="C5">
+        <v>2000</v>
+      </c>
+      <c r="D5" s="2">
+        <v>19.575062296999999</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2493.3000000000002</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1019</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.25395554640000001</v>
+      </c>
+      <c r="H5" s="4">
+        <v>4.6016291656544358E-3</v>
+      </c>
+      <c r="I5" s="2">
+        <v>2.4355514799999999E-2</v>
+      </c>
+      <c r="J5" s="2">
+        <v>2.429059311432533E-2</v>
+      </c>
+      <c r="K5" s="4">
+        <v>1.9965521E-3</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0.51345114662605973</v>
+      </c>
+      <c r="M5" s="5">
+        <v>1.0183539999999999E-4</v>
+      </c>
+      <c r="N5" s="6">
+        <v>17.980969470623897</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>60</v>
+      </c>
+      <c r="B6">
+        <v>1200</v>
+      </c>
+      <c r="C6">
+        <v>2400</v>
+      </c>
+      <c r="D6" s="2">
+        <v>35.951856803893989</v>
+      </c>
+      <c r="E6" s="3">
+        <v>3115.2</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1213.5999999999999</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.19924074594833871</v>
+      </c>
+      <c r="H6" s="4">
+        <v>2.8284367468809587E-3</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1.9223146347092782E-2</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1.7040040186137063E-2</v>
+      </c>
+      <c r="K6" s="4">
+        <v>1.6186787274951879E-3</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0.23926041638487994</v>
+      </c>
+      <c r="M6" s="5">
+        <v>8.7643734756793427E-5</v>
+      </c>
+      <c r="N6" s="6">
+        <v>7.7106159996156123</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AC56"/>
+  <sheetViews>
+    <sheetView topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="AB56" sqref="AB56:AC56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4147,17 +7354,1891 @@
         <v>7.7106159996156123</v>
       </c>
     </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35">
+        <v>1000</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>6112739110</v>
+      </c>
+      <c r="E35">
+        <v>5.4989442830000002</v>
+      </c>
+      <c r="F35">
+        <v>1557</v>
+      </c>
+      <c r="G35">
+        <v>624</v>
+      </c>
+      <c r="H35">
+        <v>1200</v>
+      </c>
+      <c r="I35">
+        <v>5034.9113989999996</v>
+      </c>
+      <c r="J35">
+        <v>0.409231603</v>
+      </c>
+      <c r="K35">
+        <v>2.2728384316673754E-2</v>
+      </c>
+      <c r="L35">
+        <v>6098404065</v>
+      </c>
+      <c r="M35">
+        <v>387002594.39999998</v>
+      </c>
+      <c r="N35">
+        <v>0.28041648899999999</v>
+      </c>
+      <c r="O35">
+        <v>2.3451100000000001E-3</v>
+      </c>
+      <c r="P35">
+        <v>3.8466039E-2</v>
+      </c>
+      <c r="Q35">
+        <v>5.0994604521982206E-2</v>
+      </c>
+      <c r="R35">
+        <v>6111688530</v>
+      </c>
+      <c r="S35">
+        <v>373718129.60000002</v>
+      </c>
+      <c r="T35">
+        <v>3.6189453600000001</v>
+      </c>
+      <c r="U35">
+        <v>1.71867E-4</v>
+      </c>
+      <c r="V35">
+        <v>2.8190799999999998E-3</v>
+      </c>
+      <c r="W35">
+        <v>0.65811638993833388</v>
+      </c>
+      <c r="X35">
+        <v>6112696591</v>
+      </c>
+      <c r="Y35">
+        <v>372710068.80000001</v>
+      </c>
+      <c r="Z35">
+        <v>130.66912840000001</v>
+      </c>
+      <c r="AA35">
+        <v>6.9600000000000003E-6</v>
+      </c>
+      <c r="AB35">
+        <v>1.1409299999999999E-4</v>
+      </c>
+      <c r="AC35">
+        <v>23.762584538993046</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36">
+        <v>1001</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>6095280018</v>
+      </c>
+      <c r="E36">
+        <v>3.858547449</v>
+      </c>
+      <c r="F36">
+        <v>919</v>
+      </c>
+      <c r="G36">
+        <v>613</v>
+      </c>
+      <c r="H36">
+        <v>1200</v>
+      </c>
+      <c r="I36">
+        <v>3899.7617169999999</v>
+      </c>
+      <c r="J36">
+        <v>0.61479229099999999</v>
+      </c>
+      <c r="K36">
+        <v>1.2147550760882194E-2</v>
+      </c>
+      <c r="L36">
+        <v>6080678471</v>
+      </c>
+      <c r="M36">
+        <v>263903324.5</v>
+      </c>
+      <c r="N36">
+        <v>0.249983549</v>
+      </c>
+      <c r="O36">
+        <v>2.3955500000000002E-3</v>
+      </c>
+      <c r="P36">
+        <v>5.8569766000000002E-2</v>
+      </c>
+      <c r="Q36">
+        <v>6.4786957347067728E-2</v>
+      </c>
+      <c r="R36">
+        <v>6094145233</v>
+      </c>
+      <c r="S36">
+        <v>250436562.80000001</v>
+      </c>
+      <c r="T36">
+        <v>3.2268309589999999</v>
+      </c>
+      <c r="U36">
+        <v>1.86174E-4</v>
+      </c>
+      <c r="V36">
+        <v>4.5518529999999998E-3</v>
+      </c>
+      <c r="W36">
+        <v>0.83628126948037951</v>
+      </c>
+      <c r="X36">
+        <v>6095232171</v>
+      </c>
+      <c r="Y36">
+        <v>249349625</v>
+      </c>
+      <c r="Z36">
+        <v>90.483930830000006</v>
+      </c>
+      <c r="AA36">
+        <v>7.8499999999999994E-6</v>
+      </c>
+      <c r="AB36">
+        <v>1.9192600000000001E-4</v>
+      </c>
+      <c r="AC36">
+        <v>23.450257389850229</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37">
+        <v>1002</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>5836781839</v>
+      </c>
+      <c r="E37">
+        <v>4.6213378909999996</v>
+      </c>
+      <c r="F37">
+        <v>1185</v>
+      </c>
+      <c r="G37">
+        <v>627</v>
+      </c>
+      <c r="H37">
+        <v>1200</v>
+      </c>
+      <c r="I37" t="s">
+        <v>40</v>
+      </c>
+      <c r="J37">
+        <v>0.58647527799999999</v>
+      </c>
+      <c r="K37">
+        <v>9.4505599958520769E-3</v>
+      </c>
+      <c r="L37">
+        <v>5823139204</v>
+      </c>
+      <c r="M37">
+        <v>262246723</v>
+      </c>
+      <c r="N37">
+        <v>0.299520016</v>
+      </c>
+      <c r="O37">
+        <v>2.3373560000000001E-3</v>
+      </c>
+      <c r="P37">
+        <v>5.4876952E-2</v>
+      </c>
+      <c r="Q37">
+        <v>6.4812403478073238E-2</v>
+      </c>
+      <c r="R37">
+        <v>5835741624</v>
+      </c>
+      <c r="S37">
+        <v>249644303.59999999</v>
+      </c>
+      <c r="T37">
+        <v>3.395961523</v>
+      </c>
+      <c r="U37">
+        <v>1.7821699999999999E-4</v>
+      </c>
+      <c r="V37">
+        <v>4.1842240000000003E-3</v>
+      </c>
+      <c r="W37">
+        <v>0.73484380564632479</v>
+      </c>
+      <c r="X37">
+        <v>5836736797</v>
+      </c>
+      <c r="Y37">
+        <v>248649130.80000001</v>
+      </c>
+      <c r="Z37">
+        <v>120.7175019</v>
+      </c>
+      <c r="AA37">
+        <v>7.7200000000000006E-6</v>
+      </c>
+      <c r="AB37">
+        <v>1.8118100000000001E-4</v>
+      </c>
+      <c r="AC37">
+        <v>26.121764897367903</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38">
+        <v>1003</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>5781176026</v>
+      </c>
+      <c r="E38">
+        <v>4.8777315620000001</v>
+      </c>
+      <c r="F38">
+        <v>1331</v>
+      </c>
+      <c r="G38">
+        <v>621</v>
+      </c>
+      <c r="H38">
+        <v>1200</v>
+      </c>
+      <c r="I38">
+        <v>3002.3154869999998</v>
+      </c>
+      <c r="J38">
+        <v>0.28841892699999999</v>
+      </c>
+      <c r="K38">
+        <v>6.406080081042393E-3</v>
+      </c>
+      <c r="L38">
+        <v>5767746829</v>
+      </c>
+      <c r="M38">
+        <v>502484032.19999999</v>
+      </c>
+      <c r="N38">
+        <v>0.296837568</v>
+      </c>
+      <c r="O38">
+        <v>2.3229180000000002E-3</v>
+      </c>
+      <c r="P38">
+        <v>2.7459490999999999E-2</v>
+      </c>
+      <c r="Q38">
+        <v>6.0855658870716672E-2</v>
+      </c>
+      <c r="R38">
+        <v>5780137930</v>
+      </c>
+      <c r="S38">
+        <v>490092931.30000001</v>
+      </c>
+      <c r="T38">
+        <v>3.5239880079999999</v>
+      </c>
+      <c r="U38">
+        <v>1.7956499999999999E-4</v>
+      </c>
+      <c r="V38">
+        <v>2.1226579999999999E-3</v>
+      </c>
+      <c r="W38">
+        <v>0.72246452335623623</v>
+      </c>
+      <c r="X38">
+        <v>5781129754</v>
+      </c>
+      <c r="Y38">
+        <v>489101107.10000002</v>
+      </c>
+      <c r="Z38">
+        <v>85.957975149999996</v>
+      </c>
+      <c r="AA38">
+        <v>7.9999999999999996E-6</v>
+      </c>
+      <c r="AB38">
+        <v>9.4599999999999996E-5</v>
+      </c>
+      <c r="AC38">
+        <v>17.622530895233385</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39">
+        <v>1004</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>6273812134</v>
+      </c>
+      <c r="E39">
+        <v>4.7030005460000002</v>
+      </c>
+      <c r="F39">
+        <v>1303</v>
+      </c>
+      <c r="G39">
+        <v>612</v>
+      </c>
+      <c r="H39">
+        <v>1200</v>
+      </c>
+      <c r="I39">
+        <v>1202.163918</v>
+      </c>
+      <c r="J39">
+        <v>0.61061813200000004</v>
+      </c>
+      <c r="K39">
+        <v>6.6440857691535552E-3</v>
+      </c>
+      <c r="L39">
+        <v>6259089210</v>
+      </c>
+      <c r="M39">
+        <v>273528106.10000002</v>
+      </c>
+      <c r="N39">
+        <v>0.249981642</v>
+      </c>
+      <c r="O39">
+        <v>2.3467269999999998E-3</v>
+      </c>
+      <c r="P39">
+        <v>5.6888058999999998E-2</v>
+      </c>
+      <c r="Q39">
+        <v>5.3153649368085781E-2</v>
+      </c>
+      <c r="R39">
+        <v>6272720764</v>
+      </c>
+      <c r="S39">
+        <v>259896552.30000001</v>
+      </c>
+      <c r="T39">
+        <v>3.217735529</v>
+      </c>
+      <c r="U39">
+        <v>1.73957E-4</v>
+      </c>
+      <c r="V39">
+        <v>4.2169579999999998E-3</v>
+      </c>
+      <c r="W39">
+        <v>0.68418778554826043</v>
+      </c>
+      <c r="X39">
+        <v>6273766304</v>
+      </c>
+      <c r="Y39">
+        <v>258851011.90000001</v>
+      </c>
+      <c r="Z39">
+        <v>98.139161830000006</v>
+      </c>
+      <c r="AA39">
+        <v>7.3000000000000004E-6</v>
+      </c>
+      <c r="AB39">
+        <v>1.7708399999999999E-4</v>
+      </c>
+      <c r="AC39">
+        <v>20.867350720056667</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40">
+        <v>1005</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>6099828858</v>
+      </c>
+      <c r="E40">
+        <v>4.4102098940000003</v>
+      </c>
+      <c r="F40">
+        <v>1128</v>
+      </c>
+      <c r="G40">
+        <v>625</v>
+      </c>
+      <c r="H40">
+        <v>1200</v>
+      </c>
+      <c r="I40" t="s">
+        <v>40</v>
+      </c>
+      <c r="J40">
+        <v>0.53746949200000005</v>
+      </c>
+      <c r="K40">
+        <v>1.0628637667284686E-2</v>
+      </c>
+      <c r="L40">
+        <v>6085253274</v>
+      </c>
+      <c r="M40">
+        <v>301017170.39999998</v>
+      </c>
+      <c r="N40">
+        <v>0.24690508799999999</v>
+      </c>
+      <c r="O40">
+        <v>2.3895069999999999E-3</v>
+      </c>
+      <c r="P40">
+        <v>5.0885013999999999E-2</v>
+      </c>
+      <c r="Q40">
+        <v>5.598488369814536E-2</v>
+      </c>
+      <c r="R40">
+        <v>6098711347</v>
+      </c>
+      <c r="S40">
+        <v>287559097.5</v>
+      </c>
+      <c r="T40">
+        <v>3.378181219</v>
+      </c>
+      <c r="U40">
+        <v>1.8320399999999999E-4</v>
+      </c>
+      <c r="V40">
+        <v>3.9013590000000001E-3</v>
+      </c>
+      <c r="W40">
+        <v>0.76599102994983204</v>
+      </c>
+      <c r="X40">
+        <v>6099779699</v>
+      </c>
+      <c r="Y40">
+        <v>286490745.30000001</v>
+      </c>
+      <c r="Z40">
+        <v>102.0229161</v>
+      </c>
+      <c r="AA40">
+        <v>8.0600000000000008E-6</v>
+      </c>
+      <c r="AB40">
+        <v>1.7161999999999999E-4</v>
+      </c>
+      <c r="AC40">
+        <v>23.133347063322333</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41">
+        <v>1006</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>6040502133</v>
+      </c>
+      <c r="E41">
+        <v>4.8640274999999997</v>
+      </c>
+      <c r="F41">
+        <v>1273</v>
+      </c>
+      <c r="G41">
+        <v>625</v>
+      </c>
+      <c r="H41">
+        <v>1200</v>
+      </c>
+      <c r="I41" t="s">
+        <v>40</v>
+      </c>
+      <c r="J41">
+        <v>0.55556745100000005</v>
+      </c>
+      <c r="K41">
+        <v>1.1254234479554238E-2</v>
+      </c>
+      <c r="L41">
+        <v>6026429375</v>
+      </c>
+      <c r="M41">
+        <v>286118259.69999999</v>
+      </c>
+      <c r="N41">
+        <v>0.30438637699999999</v>
+      </c>
+      <c r="O41">
+        <v>2.3297330000000001E-3</v>
+      </c>
+      <c r="P41">
+        <v>5.1729429E-2</v>
+      </c>
+      <c r="Q41">
+        <v>6.2579082252310458E-2</v>
+      </c>
+      <c r="R41">
+        <v>6039437570</v>
+      </c>
+      <c r="S41">
+        <v>273110064.39999998</v>
+      </c>
+      <c r="T41">
+        <v>3.907151222</v>
+      </c>
+      <c r="U41">
+        <v>1.7623699999999999E-4</v>
+      </c>
+      <c r="V41">
+        <v>3.9131799999999996E-3</v>
+      </c>
+      <c r="W41">
+        <v>0.8032749037705893</v>
+      </c>
+      <c r="X41">
+        <v>6040457011</v>
+      </c>
+      <c r="Y41">
+        <v>272090623.60000002</v>
+      </c>
+      <c r="Z41">
+        <v>123.2933824</v>
+      </c>
+      <c r="AA41">
+        <v>7.4699999999999996E-6</v>
+      </c>
+      <c r="AB41">
+        <v>1.6586300000000001E-4</v>
+      </c>
+      <c r="AC41">
+        <v>25.348002740527271</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42">
+        <v>1007</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>5882417065</v>
+      </c>
+      <c r="E42">
+        <v>4.5200762750000001</v>
+      </c>
+      <c r="F42">
+        <v>1242</v>
+      </c>
+      <c r="G42">
+        <v>606</v>
+      </c>
+      <c r="H42">
+        <v>1200</v>
+      </c>
+      <c r="I42" t="s">
+        <v>40</v>
+      </c>
+      <c r="J42">
+        <v>0.39632427599999998</v>
+      </c>
+      <c r="K42">
+        <v>9.8080690021099259E-3</v>
+      </c>
+      <c r="L42">
+        <v>5868363343</v>
+      </c>
+      <c r="M42">
+        <v>387212156.5</v>
+      </c>
+      <c r="N42">
+        <v>0.24996876700000001</v>
+      </c>
+      <c r="O42">
+        <v>2.3891070000000001E-3</v>
+      </c>
+      <c r="P42">
+        <v>3.7661541E-2</v>
+      </c>
+      <c r="Q42">
+        <v>5.5301891338105792E-2</v>
+      </c>
+      <c r="R42">
+        <v>5881364577</v>
+      </c>
+      <c r="S42">
+        <v>374210922.80000001</v>
+      </c>
+      <c r="T42">
+        <v>3.4654817580000001</v>
+      </c>
+      <c r="U42">
+        <v>1.7892099999999999E-4</v>
+      </c>
+      <c r="V42">
+        <v>2.8204850000000002E-3</v>
+      </c>
+      <c r="W42">
+        <v>0.76668656614649722</v>
+      </c>
+      <c r="X42">
+        <v>5882369945</v>
+      </c>
+      <c r="Y42">
+        <v>373205554.5</v>
+      </c>
+      <c r="Z42">
+        <v>109.9783633</v>
+      </c>
+      <c r="AA42">
+        <v>8.0099999999999995E-6</v>
+      </c>
+      <c r="AB42">
+        <v>1.26272E-4</v>
+      </c>
+      <c r="AC42">
+        <v>24.331085718238239</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>80</v>
+      </c>
+      <c r="B43">
+        <v>1008</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>6128996151</v>
+      </c>
+      <c r="E43">
+        <v>4.8035337919999996</v>
+      </c>
+      <c r="F43">
+        <v>1289</v>
+      </c>
+      <c r="G43">
+        <v>606</v>
+      </c>
+      <c r="H43">
+        <v>1200</v>
+      </c>
+      <c r="I43">
+        <v>3611.0381750000001</v>
+      </c>
+      <c r="J43">
+        <v>0.72145191799999997</v>
+      </c>
+      <c r="K43">
+        <v>8.6136822996664367E-3</v>
+      </c>
+      <c r="L43">
+        <v>6114816414</v>
+      </c>
+      <c r="M43">
+        <v>225323911.40000001</v>
+      </c>
+      <c r="N43">
+        <v>0.265606642</v>
+      </c>
+      <c r="O43">
+        <v>2.3135500000000002E-3</v>
+      </c>
+      <c r="P43">
+        <v>6.7156655999999995E-2</v>
+      </c>
+      <c r="Q43">
+        <v>5.5294009265085653E-2</v>
+      </c>
+      <c r="R43">
+        <v>6127921786</v>
+      </c>
+      <c r="S43">
+        <v>212218539.19999999</v>
+      </c>
+      <c r="T43">
+        <v>4.2077934739999998</v>
+      </c>
+      <c r="U43">
+        <v>1.7529199999999999E-4</v>
+      </c>
+      <c r="V43">
+        <v>5.0882990000000001E-3</v>
+      </c>
+      <c r="W43">
+        <v>0.87597873902913514</v>
+      </c>
+      <c r="X43">
+        <v>6128951075</v>
+      </c>
+      <c r="Y43">
+        <v>211189250.5</v>
+      </c>
+      <c r="Z43">
+        <v>233.88434100000001</v>
+      </c>
+      <c r="AA43">
+        <v>7.3499999999999999E-6</v>
+      </c>
+      <c r="AB43">
+        <v>2.13484E-4</v>
+      </c>
+      <c r="AC43">
+        <v>48.690058429383903</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>81</v>
+      </c>
+      <c r="B44">
+        <v>1009</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>5766933831</v>
+      </c>
+      <c r="E44">
+        <v>4.1582562919999999</v>
+      </c>
+      <c r="F44">
+        <v>1145</v>
+      </c>
+      <c r="G44">
+        <v>610</v>
+      </c>
+      <c r="H44">
+        <v>1200</v>
+      </c>
+      <c r="I44" t="s">
+        <v>40</v>
+      </c>
+      <c r="J44">
+        <v>0.40225727900000002</v>
+      </c>
+      <c r="K44">
+        <v>1.1272467281581404E-2</v>
+      </c>
+      <c r="L44">
+        <v>5753285075</v>
+      </c>
+      <c r="M44">
+        <v>368893562.19999999</v>
+      </c>
+      <c r="N44">
+        <v>0.24998378800000001</v>
+      </c>
+      <c r="O44">
+        <v>2.3667269999999999E-3</v>
+      </c>
+      <c r="P44">
+        <v>3.8420704999999999E-2</v>
+      </c>
+      <c r="Q44">
+        <v>6.0117455598140898E-2</v>
+      </c>
+      <c r="R44">
+        <v>5765880323</v>
+      </c>
+      <c r="S44">
+        <v>356298314.39999998</v>
+      </c>
+      <c r="T44">
+        <v>3.308107138</v>
+      </c>
+      <c r="U44">
+        <v>1.8268099999999999E-4</v>
+      </c>
+      <c r="V44">
+        <v>2.9655829999999999E-3</v>
+      </c>
+      <c r="W44">
+        <v>0.79555152585578048</v>
+      </c>
+      <c r="X44">
+        <v>5766887447</v>
+      </c>
+      <c r="Y44">
+        <v>355291190.69999999</v>
+      </c>
+      <c r="Z44">
+        <v>115.84029339999999</v>
+      </c>
+      <c r="AA44">
+        <v>8.0399999999999993E-6</v>
+      </c>
+      <c r="AB44">
+        <v>1.3056999999999999E-4</v>
+      </c>
+      <c r="AC44">
+        <v>27.857901308984538</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="E45">
+        <f>AVERAGE(E35:E44)</f>
+        <v>4.6315665484000004</v>
+      </c>
+      <c r="F45">
+        <f t="shared" ref="F45:G45" si="10">AVERAGE(F35:F44)</f>
+        <v>1237.2</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="10"/>
+        <v>616.9</v>
+      </c>
+      <c r="J45">
+        <f t="shared" ref="J45" si="11">AVERAGE(J35:J44)</f>
+        <v>0.51226066469999998</v>
+      </c>
+      <c r="K45">
+        <f t="shared" ref="K45" si="12">AVERAGE(K35:K44)</f>
+        <v>1.0895375165380066E-2</v>
+      </c>
+      <c r="P45">
+        <f t="shared" ref="P45" si="13">AVERAGE(P35:P44)</f>
+        <v>4.8211365200000002E-2</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" ref="Q45" si="14">AVERAGE(Q35:Q44)</f>
+        <v>5.8388059573771377E-2</v>
+      </c>
+      <c r="V45">
+        <f t="shared" ref="V45:W45" si="15">AVERAGE(V35:V44)</f>
+        <v>3.6583678999999999E-3</v>
+      </c>
+      <c r="W45">
+        <f t="shared" si="15"/>
+        <v>0.76433765387213692</v>
+      </c>
+      <c r="AB45">
+        <f t="shared" ref="AB45" si="16">AVERAGE(AB35:AB44)</f>
+        <v>1.5666930000000001E-4</v>
+      </c>
+      <c r="AC45">
+        <f t="shared" ref="AC45" si="17">AVERAGE(AC35:AC44)</f>
+        <v>26.118488370195745</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>82</v>
+      </c>
+      <c r="B46">
+        <v>1000</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>44775135587</v>
+      </c>
+      <c r="E46">
+        <v>16.882469650000001</v>
+      </c>
+      <c r="F46">
+        <v>2054</v>
+      </c>
+      <c r="G46">
+        <v>1014</v>
+      </c>
+      <c r="H46">
+        <v>2000</v>
+      </c>
+      <c r="I46">
+        <v>3382.2559230000002</v>
+      </c>
+      <c r="J46">
+        <v>0.23993171999999999</v>
+      </c>
+      <c r="K46">
+        <v>1.2957114541591964E-2</v>
+      </c>
+      <c r="L46">
+        <v>44710381745</v>
+      </c>
+      <c r="M46">
+        <v>2858756815</v>
+      </c>
+      <c r="N46">
+        <v>0.56545948999999995</v>
+      </c>
+      <c r="O46">
+        <v>1.446201E-3</v>
+      </c>
+      <c r="P46">
+        <v>2.317601E-2</v>
+      </c>
+      <c r="Q46">
+        <v>3.3493884586962661E-2</v>
+      </c>
+      <c r="R46">
+        <v>44769881400</v>
+      </c>
+      <c r="S46">
+        <v>2799257160</v>
+      </c>
+      <c r="T46">
+        <v>15.441611290000001</v>
+      </c>
+      <c r="U46">
+        <v>1.17346E-4</v>
+      </c>
+      <c r="V46">
+        <v>1.880523E-3</v>
+      </c>
+      <c r="W46">
+        <v>0.91465357913437739</v>
+      </c>
+      <c r="X46">
+        <v>44774869262</v>
+      </c>
+      <c r="Y46">
+        <v>2794269298</v>
+      </c>
+      <c r="Z46">
+        <v>730.80157780000002</v>
+      </c>
+      <c r="AA46">
+        <v>5.9499999999999998E-6</v>
+      </c>
+      <c r="AB46">
+        <v>9.5299999999999999E-5</v>
+      </c>
+      <c r="AC46">
+        <v>43.287599086547146</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>83</v>
+      </c>
+      <c r="B47">
+        <v>1001</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>44820589684</v>
+      </c>
+      <c r="E47">
+        <v>18.16570544</v>
+      </c>
+      <c r="F47">
+        <v>2387</v>
+      </c>
+      <c r="G47">
+        <v>1009</v>
+      </c>
+      <c r="H47">
+        <v>2000</v>
+      </c>
+      <c r="I47">
+        <v>2981.469869</v>
+      </c>
+      <c r="J47">
+        <v>0.26926006200000002</v>
+      </c>
+      <c r="K47">
+        <v>4.2854485479315351E-3</v>
+      </c>
+      <c r="L47">
+        <v>44753695242</v>
+      </c>
+      <c r="M47">
+        <v>2634305914</v>
+      </c>
+      <c r="N47">
+        <v>0.42184066799999997</v>
+      </c>
+      <c r="O47">
+        <v>1.492494E-3</v>
+      </c>
+      <c r="P47">
+        <v>2.6055208999999999E-2</v>
+      </c>
+      <c r="Q47">
+        <v>2.3221815931856262E-2</v>
+      </c>
+      <c r="R47">
+        <v>44815074966</v>
+      </c>
+      <c r="S47">
+        <v>2572926190</v>
+      </c>
+      <c r="T47">
+        <v>9.054578781</v>
+      </c>
+      <c r="U47">
+        <v>1.2303999999999999E-4</v>
+      </c>
+      <c r="V47">
+        <v>2.1479680000000001E-3</v>
+      </c>
+      <c r="W47">
+        <v>0.49844355403133744</v>
+      </c>
+      <c r="X47">
+        <v>44820311297</v>
+      </c>
+      <c r="Y47">
+        <v>2567689858</v>
+      </c>
+      <c r="Z47">
+        <v>224.396131</v>
+      </c>
+      <c r="AA47">
+        <v>6.2099999999999998E-6</v>
+      </c>
+      <c r="AB47">
+        <v>1.0843100000000001E-4</v>
+      </c>
+      <c r="AC47">
+        <v>12.352734207937262</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>84</v>
+      </c>
+      <c r="B48">
+        <v>1002</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>45683020604</v>
+      </c>
+      <c r="E48">
+        <v>21.863907340000001</v>
+      </c>
+      <c r="F48">
+        <v>2931</v>
+      </c>
+      <c r="G48">
+        <v>1027</v>
+      </c>
+      <c r="H48">
+        <v>2000</v>
+      </c>
+      <c r="I48">
+        <v>181016.2102</v>
+      </c>
+      <c r="J48">
+        <v>0.23097551099999999</v>
+      </c>
+      <c r="K48">
+        <v>3.3164247758836322E-3</v>
+      </c>
+      <c r="L48">
+        <v>45616043860</v>
+      </c>
+      <c r="M48">
+        <v>3071378290</v>
+      </c>
+      <c r="N48">
+        <v>0.49787211399999998</v>
+      </c>
+      <c r="O48">
+        <v>1.4661190000000001E-3</v>
+      </c>
+      <c r="P48">
+        <v>2.2292874000000001E-2</v>
+      </c>
+      <c r="Q48">
+        <v>2.2771415294517983E-2</v>
+      </c>
+      <c r="R48">
+        <v>45677500236</v>
+      </c>
+      <c r="S48">
+        <v>3009921914</v>
+      </c>
+      <c r="T48">
+        <v>10.09346938</v>
+      </c>
+      <c r="U48">
+        <v>1.20841E-4</v>
+      </c>
+      <c r="V48">
+        <v>1.837427E-3</v>
+      </c>
+      <c r="W48">
+        <v>0.46164984250248836</v>
+      </c>
+      <c r="X48">
+        <v>45682738085</v>
+      </c>
+      <c r="Y48">
+        <v>3004684065</v>
+      </c>
+      <c r="Z48">
+        <v>284.95148610000001</v>
+      </c>
+      <c r="AA48">
+        <v>6.1800000000000001E-6</v>
+      </c>
+      <c r="AB48">
+        <v>9.3999999999999994E-5</v>
+      </c>
+      <c r="AC48">
+        <v>13.032962574749002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>85</v>
+      </c>
+      <c r="B49">
+        <v>1003</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>44955482845</v>
+      </c>
+      <c r="E49">
+        <v>19.77652192</v>
+      </c>
+      <c r="F49">
+        <v>2500</v>
+      </c>
+      <c r="G49">
+        <v>1015</v>
+      </c>
+      <c r="H49">
+        <v>2000</v>
+      </c>
+      <c r="I49">
+        <v>2011.1934679999999</v>
+      </c>
+      <c r="J49">
+        <v>0.28915381800000001</v>
+      </c>
+      <c r="K49">
+        <v>3.9500296015650459E-3</v>
+      </c>
+      <c r="L49">
+        <v>44889292491</v>
+      </c>
+      <c r="M49">
+        <v>2468497656</v>
+      </c>
+      <c r="N49">
+        <v>0.499949217</v>
+      </c>
+      <c r="O49">
+        <v>1.472353E-3</v>
+      </c>
+      <c r="P49">
+        <v>2.7552825E-2</v>
+      </c>
+      <c r="Q49">
+        <v>2.5279936432826507E-2</v>
+      </c>
+      <c r="R49">
+        <v>44950003558</v>
+      </c>
+      <c r="S49">
+        <v>2407786590</v>
+      </c>
+      <c r="T49">
+        <v>14.20492101</v>
+      </c>
+      <c r="U49">
+        <v>1.21883E-4</v>
+      </c>
+      <c r="V49">
+        <v>2.2808440000000002E-3</v>
+      </c>
+      <c r="W49">
+        <v>0.71827195234135488</v>
+      </c>
+      <c r="X49">
+        <v>44955204966</v>
+      </c>
+      <c r="Y49">
+        <v>2402585182</v>
+      </c>
+      <c r="Z49">
+        <v>561.72675089999996</v>
+      </c>
+      <c r="AA49">
+        <v>6.1800000000000001E-6</v>
+      </c>
+      <c r="AB49">
+        <v>1.15672E-4</v>
+      </c>
+      <c r="AC49">
+        <v>28.40371796275894</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>86</v>
+      </c>
+      <c r="B50">
+        <v>1004</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>44721535958</v>
+      </c>
+      <c r="E50">
+        <v>21.865575549999999</v>
+      </c>
+      <c r="F50">
+        <v>2964</v>
+      </c>
+      <c r="G50">
+        <v>1029</v>
+      </c>
+      <c r="H50">
+        <v>2000</v>
+      </c>
+      <c r="I50" t="s">
+        <v>40</v>
+      </c>
+      <c r="J50">
+        <v>0.22563209100000001</v>
+      </c>
+      <c r="K50">
+        <v>2.8581344615006029E-3</v>
+      </c>
+      <c r="L50">
+        <v>44656298658</v>
+      </c>
+      <c r="M50">
+        <v>3055813862</v>
+      </c>
+      <c r="N50">
+        <v>0.466830254</v>
+      </c>
+      <c r="O50">
+        <v>1.458745E-3</v>
+      </c>
+      <c r="P50">
+        <v>2.1814288000000001E-2</v>
+      </c>
+      <c r="Q50">
+        <v>2.1350009878884711E-2</v>
+      </c>
+      <c r="R50">
+        <v>44716217806</v>
+      </c>
+      <c r="S50">
+        <v>2995894713</v>
+      </c>
+      <c r="T50">
+        <v>8.6712520120000001</v>
+      </c>
+      <c r="U50">
+        <v>1.18917E-4</v>
+      </c>
+      <c r="V50">
+        <v>1.778303E-3</v>
+      </c>
+      <c r="W50">
+        <v>0.39657094743156673</v>
+      </c>
+      <c r="X50">
+        <v>44721261453</v>
+      </c>
+      <c r="Y50">
+        <v>2990851067</v>
+      </c>
+      <c r="Z50">
+        <v>199.1297319</v>
+      </c>
+      <c r="AA50">
+        <v>6.1399999999999997E-6</v>
+      </c>
+      <c r="AB50">
+        <v>9.1799999999999995E-5</v>
+      </c>
+      <c r="AC50">
+        <v>9.1069970440361914</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>87</v>
+      </c>
+      <c r="B51">
+        <v>1005</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>45015698098</v>
+      </c>
+      <c r="E51">
+        <v>18.830482239999998</v>
+      </c>
+      <c r="F51">
+        <v>2283</v>
+      </c>
+      <c r="G51">
+        <v>1033</v>
+      </c>
+      <c r="H51">
+        <v>2000</v>
+      </c>
+      <c r="I51">
+        <v>2138.9858429999999</v>
+      </c>
+      <c r="J51">
+        <v>0.251471218</v>
+      </c>
+      <c r="K51">
+        <v>4.1485796276665085E-3</v>
+      </c>
+      <c r="L51">
+        <v>44950521068</v>
+      </c>
+      <c r="M51">
+        <v>2781977549</v>
+      </c>
+      <c r="N51">
+        <v>0.43746638300000001</v>
+      </c>
+      <c r="O51">
+        <v>1.4478729999999999E-3</v>
+      </c>
+      <c r="P51">
+        <v>2.3990363000000001E-2</v>
+      </c>
+      <c r="Q51">
+        <v>2.3231820482575175E-2</v>
+      </c>
+      <c r="R51">
+        <v>45010287801</v>
+      </c>
+      <c r="S51">
+        <v>2722210815</v>
+      </c>
+      <c r="T51">
+        <v>8.0267479420000001</v>
+      </c>
+      <c r="U51">
+        <v>1.2018700000000001E-4</v>
+      </c>
+      <c r="V51">
+        <v>1.9914220000000001E-3</v>
+      </c>
+      <c r="W51">
+        <v>0.42626353588276455</v>
+      </c>
+      <c r="X51">
+        <v>45015416471</v>
+      </c>
+      <c r="Y51">
+        <v>2717082146</v>
+      </c>
+      <c r="Z51">
+        <v>229.21120099999999</v>
+      </c>
+      <c r="AA51">
+        <v>6.2600000000000002E-6</v>
+      </c>
+      <c r="AB51">
+        <v>1.03662E-4</v>
+      </c>
+      <c r="AC51">
+        <v>12.172348964760236</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>88</v>
+      </c>
+      <c r="B52">
+        <v>1006</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>44942271568</v>
+      </c>
+      <c r="E52">
+        <v>17.792802569999999</v>
+      </c>
+      <c r="F52">
+        <v>2148</v>
+      </c>
+      <c r="G52">
+        <v>1013</v>
+      </c>
+      <c r="H52">
+        <v>2000</v>
+      </c>
+      <c r="I52">
+        <v>2285.7902170000002</v>
+      </c>
+      <c r="J52">
+        <v>0.28600352200000001</v>
+      </c>
+      <c r="K52">
+        <v>3.5124150764968558E-3</v>
+      </c>
+      <c r="L52">
+        <v>44876023900</v>
+      </c>
+      <c r="M52">
+        <v>2511840593</v>
+      </c>
+      <c r="N52">
+        <v>0.43745446199999999</v>
+      </c>
+      <c r="O52">
+        <v>1.474061E-3</v>
+      </c>
+      <c r="P52">
+        <v>2.7088592000000002E-2</v>
+      </c>
+      <c r="Q52">
+        <v>2.4586034733931183E-2</v>
+      </c>
+      <c r="R52">
+        <v>44936906937</v>
+      </c>
+      <c r="S52">
+        <v>2450957556</v>
+      </c>
+      <c r="T52">
+        <v>7.833996773</v>
+      </c>
+      <c r="U52">
+        <v>1.19367E-4</v>
+      </c>
+      <c r="V52">
+        <v>2.1935909999999999E-3</v>
+      </c>
+      <c r="W52">
+        <v>0.44029020960468063</v>
+      </c>
+      <c r="X52">
+        <v>44942006916</v>
+      </c>
+      <c r="Y52">
+        <v>2445857577</v>
+      </c>
+      <c r="Z52">
+        <v>286.67539640000001</v>
+      </c>
+      <c r="AA52">
+        <v>5.8900000000000004E-6</v>
+      </c>
+      <c r="AB52">
+        <v>1.08216E-4</v>
+      </c>
+      <c r="AC52">
+        <v>16.111874184641167</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>89</v>
+      </c>
+      <c r="B53">
+        <v>1007</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>44335073599</v>
+      </c>
+      <c r="E53">
+        <v>24.489820720000001</v>
+      </c>
+      <c r="F53">
+        <v>3269</v>
+      </c>
+      <c r="G53">
+        <v>1042</v>
+      </c>
+      <c r="H53">
+        <v>2000</v>
+      </c>
+      <c r="I53">
+        <v>2127.034099</v>
+      </c>
+      <c r="J53">
+        <v>0.280743562</v>
+      </c>
+      <c r="K53">
+        <v>3.1898380920446362E-3</v>
+      </c>
+      <c r="L53">
+        <v>44268716528</v>
+      </c>
+      <c r="M53">
+        <v>2516340202</v>
+      </c>
+      <c r="N53">
+        <v>0.44037079800000001</v>
+      </c>
+      <c r="O53">
+        <v>1.4967170000000001E-3</v>
+      </c>
+      <c r="P53">
+        <v>2.7084705000000001E-2</v>
+      </c>
+      <c r="Q53">
+        <v>1.7981789374242507E-2</v>
+      </c>
+      <c r="R53">
+        <v>44329797144</v>
+      </c>
+      <c r="S53">
+        <v>2455259586</v>
+      </c>
+      <c r="T53">
+        <v>7.7182078360000004</v>
+      </c>
+      <c r="U53">
+        <v>1.1901299999999999E-4</v>
+      </c>
+      <c r="V53">
+        <v>2.1536699999999999E-3</v>
+      </c>
+      <c r="W53">
+        <v>0.315159834130464</v>
+      </c>
+      <c r="X53">
+        <v>44334802206</v>
+      </c>
+      <c r="Y53">
+        <v>2450254523</v>
+      </c>
+      <c r="Z53">
+        <v>167.54948400000001</v>
+      </c>
+      <c r="AA53">
+        <v>6.1199999999999999E-6</v>
+      </c>
+      <c r="AB53">
+        <v>1.10773E-4</v>
+      </c>
+      <c r="AC53">
+        <v>6.8415970012866634</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>90</v>
+      </c>
+      <c r="B54">
+        <v>1008</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>45187035426</v>
+      </c>
+      <c r="E54">
+        <v>17.951982019999999</v>
+      </c>
+      <c r="F54">
+        <v>2142</v>
+      </c>
+      <c r="G54">
+        <v>996</v>
+      </c>
+      <c r="H54">
+        <v>2000</v>
+      </c>
+      <c r="I54">
+        <v>13692.858679999999</v>
+      </c>
+      <c r="J54">
+        <v>0.22599200799999999</v>
+      </c>
+      <c r="K54">
+        <v>4.3515816756594548E-3</v>
+      </c>
+      <c r="L54">
+        <v>45121668933</v>
+      </c>
+      <c r="M54">
+        <v>3100779592</v>
+      </c>
+      <c r="N54">
+        <v>0.453097582</v>
+      </c>
+      <c r="O54">
+        <v>1.446576E-3</v>
+      </c>
+      <c r="P54">
+        <v>2.1534628E-2</v>
+      </c>
+      <c r="Q54">
+        <v>2.5239418215504652E-2</v>
+      </c>
+      <c r="R54">
+        <v>45181584067</v>
+      </c>
+      <c r="S54">
+        <v>3040864458</v>
+      </c>
+      <c r="T54">
+        <v>9.3093330860000005</v>
+      </c>
+      <c r="U54">
+        <v>1.2064E-4</v>
+      </c>
+      <c r="V54">
+        <v>1.7959199999999999E-3</v>
+      </c>
+      <c r="W54">
+        <v>0.51856853887379284</v>
+      </c>
+      <c r="X54">
+        <v>45186756362</v>
+      </c>
+      <c r="Y54">
+        <v>3035692163</v>
+      </c>
+      <c r="Z54">
+        <v>497.953959</v>
+      </c>
+      <c r="AA54">
+        <v>6.1800000000000001E-6</v>
+      </c>
+      <c r="AB54">
+        <v>9.1899999999999998E-5</v>
+      </c>
+      <c r="AC54">
+        <v>27.738104820138407</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>91</v>
+      </c>
+      <c r="B55">
+        <v>1009</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>44330598040</v>
+      </c>
+      <c r="E55">
+        <v>18.13135552</v>
+      </c>
+      <c r="F55">
+        <v>2255</v>
+      </c>
+      <c r="G55">
+        <v>1012</v>
+      </c>
+      <c r="H55">
+        <v>2000</v>
+      </c>
+      <c r="I55" t="s">
+        <v>40</v>
+      </c>
+      <c r="J55">
+        <v>0.24039195199999999</v>
+      </c>
+      <c r="K55">
+        <v>3.4467252562041212E-3</v>
+      </c>
+      <c r="L55">
+        <v>44266118251</v>
+      </c>
+      <c r="M55">
+        <v>2872141531</v>
+      </c>
+      <c r="N55">
+        <v>0.46687889100000002</v>
+      </c>
+      <c r="O55">
+        <v>1.4545210000000001E-3</v>
+      </c>
+      <c r="P55">
+        <v>2.2965653999999999E-2</v>
+      </c>
+      <c r="Q55">
+        <v>2.5749806211951661E-2</v>
+      </c>
+      <c r="R55">
+        <v>44325247050</v>
+      </c>
+      <c r="S55">
+        <v>2813012732</v>
+      </c>
+      <c r="T55">
+        <v>8.0619163510000007</v>
+      </c>
+      <c r="U55">
+        <v>1.2070600000000001E-4</v>
+      </c>
+      <c r="V55">
+        <v>1.9058530000000001E-3</v>
+      </c>
+      <c r="W55">
+        <v>0.44463947232777007</v>
+      </c>
+      <c r="X55">
+        <v>44330321319</v>
+      </c>
+      <c r="Y55">
+        <v>2807938463</v>
+      </c>
+      <c r="Z55">
+        <v>195.12527589999999</v>
+      </c>
+      <c r="AA55">
+        <v>6.2400000000000004E-6</v>
+      </c>
+      <c r="AB55">
+        <v>9.8599999999999998E-5</v>
+      </c>
+      <c r="AC55">
+        <v>10.761758859383946</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="E56">
+        <f>AVERAGE(E46:E55)</f>
+        <v>19.575062296999999</v>
+      </c>
+      <c r="F56">
+        <f t="shared" ref="F56:G56" si="18">AVERAGE(F46:F55)</f>
+        <v>2493.3000000000002</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="18"/>
+        <v>1019</v>
+      </c>
+      <c r="J56">
+        <f t="shared" ref="J56" si="19">AVERAGE(J46:J55)</f>
+        <v>0.25395554640000001</v>
+      </c>
+      <c r="K56">
+        <f t="shared" ref="K56" si="20">AVERAGE(K46:K55)</f>
+        <v>4.6016291656544358E-3</v>
+      </c>
+      <c r="P56">
+        <f t="shared" ref="P56" si="21">AVERAGE(P46:P55)</f>
+        <v>2.4355514799999999E-2</v>
+      </c>
+      <c r="Q56">
+        <f t="shared" ref="Q56" si="22">AVERAGE(Q46:Q55)</f>
+        <v>2.429059311432533E-2</v>
+      </c>
+      <c r="V56">
+        <f t="shared" ref="V56:W56" si="23">AVERAGE(V46:V55)</f>
+        <v>1.9965521E-3</v>
+      </c>
+      <c r="W56">
+        <f t="shared" si="23"/>
+        <v>0.51345114662605973</v>
+      </c>
+      <c r="AB56">
+        <f t="shared" ref="AB56" si="24">AVERAGE(AB46:AB55)</f>
+        <v>1.0183539999999999E-4</v>
+      </c>
+      <c r="AC56">
+        <f t="shared" ref="AC56" si="25">AVERAGE(AC46:AC55)</f>
+        <v>17.980969470623897</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM31"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AM51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AH34" sqref="AH34"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="J1" sqref="J1"/>
+      <selection pane="bottomLeft" activeCell="AJ1" sqref="AJ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4362,7 +9443,7 @@
         <v>6.3786433955956998E-2</v>
       </c>
       <c r="AA2">
-        <f t="shared" ref="AA2:AA31" si="0">X2/$E2</f>
+        <f t="shared" ref="AA2:AA51" si="0">X2/$E2</f>
         <v>0.14042222953163944</v>
       </c>
       <c r="AB2">
@@ -4381,7 +9462,7 @@
         <v>4.4479570892138496E-3</v>
       </c>
       <c r="AG2">
-        <f t="shared" ref="AG2:AG31" si="1">AD2/$E2</f>
+        <f t="shared" ref="AG2:AG51" si="1">AD2/$E2</f>
         <v>1.7575401574476976</v>
       </c>
       <c r="AH2">
@@ -4400,7 +9481,7 @@
         <v>1.7210980669303999E-4</v>
       </c>
       <c r="AM2">
-        <f t="shared" ref="AM2:AM31" si="2">AJ2/$E2</f>
+        <f t="shared" ref="AM2:AM51" si="2">AJ2/$E2</f>
         <v>60.367769793371103</v>
       </c>
     </row>
@@ -7969,6 +13050,2466 @@
       <c r="AM31">
         <f t="shared" si="2"/>
         <v>6.4400268685500874</v>
+      </c>
+    </row>
+    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32">
+        <v>1000</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>6112739110</v>
+      </c>
+      <c r="E32">
+        <v>5.4989442830000002</v>
+      </c>
+      <c r="F32">
+        <v>1557</v>
+      </c>
+      <c r="G32">
+        <v>624</v>
+      </c>
+      <c r="H32">
+        <v>1200</v>
+      </c>
+      <c r="I32">
+        <v>5034.9113989999996</v>
+      </c>
+      <c r="J32">
+        <v>1.923076923</v>
+      </c>
+      <c r="K32">
+        <v>804.57466309999995</v>
+      </c>
+      <c r="L32" s="1">
+        <v>3.1300000000000001E-6</v>
+      </c>
+      <c r="M32">
+        <v>33.261022199999999</v>
+      </c>
+      <c r="N32">
+        <v>6485406660</v>
+      </c>
+      <c r="O32">
+        <v>372667549.89999998</v>
+      </c>
+      <c r="P32">
+        <v>5960231771</v>
+      </c>
+      <c r="Q32">
+        <v>525174888.5</v>
+      </c>
+      <c r="R32">
+        <v>0.124982119</v>
+      </c>
+      <c r="S32">
+        <v>2.4949099999999998E-2</v>
+      </c>
+      <c r="T32">
+        <v>0.409231603</v>
+      </c>
+      <c r="U32">
+        <f t="shared" ref="U32:U51" si="4">R32/$E32</f>
+        <v>2.2728384316673754E-2</v>
+      </c>
+      <c r="V32">
+        <v>6098404065</v>
+      </c>
+      <c r="W32">
+        <v>387002594.39999998</v>
+      </c>
+      <c r="X32">
+        <v>0.28041648899999999</v>
+      </c>
+      <c r="Y32">
+        <v>2.3451100000000001E-3</v>
+      </c>
+      <c r="Z32">
+        <v>3.8466039E-2</v>
+      </c>
+      <c r="AA32">
+        <f t="shared" si="0"/>
+        <v>5.0994604521982206E-2</v>
+      </c>
+      <c r="AB32">
+        <v>6111688530</v>
+      </c>
+      <c r="AC32">
+        <v>373718129.60000002</v>
+      </c>
+      <c r="AD32">
+        <v>3.6189453600000001</v>
+      </c>
+      <c r="AE32">
+        <v>1.71867E-4</v>
+      </c>
+      <c r="AF32">
+        <v>2.8190799999999998E-3</v>
+      </c>
+      <c r="AG32">
+        <f t="shared" si="1"/>
+        <v>0.65811638993833388</v>
+      </c>
+      <c r="AH32">
+        <v>6112696591</v>
+      </c>
+      <c r="AI32">
+        <v>372710068.80000001</v>
+      </c>
+      <c r="AJ32">
+        <v>130.66912840000001</v>
+      </c>
+      <c r="AK32" s="1">
+        <v>6.9600000000000003E-6</v>
+      </c>
+      <c r="AL32">
+        <v>1.1409299999999999E-4</v>
+      </c>
+      <c r="AM32">
+        <f t="shared" si="2"/>
+        <v>23.762584538993046</v>
+      </c>
+    </row>
+    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33">
+        <v>1001</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>6095280018</v>
+      </c>
+      <c r="E33">
+        <v>3.858547449</v>
+      </c>
+      <c r="F33">
+        <v>919</v>
+      </c>
+      <c r="G33">
+        <v>613</v>
+      </c>
+      <c r="H33">
+        <v>1200</v>
+      </c>
+      <c r="I33">
+        <v>3899.7617169999999</v>
+      </c>
+      <c r="J33">
+        <v>1.9575856439999999</v>
+      </c>
+      <c r="K33">
+        <v>959.88872130000004</v>
+      </c>
+      <c r="L33" s="1">
+        <v>4.0099999999999997E-6</v>
+      </c>
+      <c r="M33">
+        <v>38.992819009999998</v>
+      </c>
+      <c r="N33">
+        <v>6344581796</v>
+      </c>
+      <c r="O33">
+        <v>249301777.69999999</v>
+      </c>
+      <c r="P33">
+        <v>5942011207</v>
+      </c>
+      <c r="Q33">
+        <v>402570588.60000002</v>
+      </c>
+      <c r="R33">
+        <v>4.6871901000000001E-2</v>
+      </c>
+      <c r="S33">
+        <v>2.5145490999999999E-2</v>
+      </c>
+      <c r="T33">
+        <v>0.61479229099999999</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="4"/>
+        <v>1.2147550760882194E-2</v>
+      </c>
+      <c r="V33">
+        <v>6080678471</v>
+      </c>
+      <c r="W33">
+        <v>263903324.5</v>
+      </c>
+      <c r="X33">
+        <v>0.249983549</v>
+      </c>
+      <c r="Y33">
+        <v>2.3955500000000002E-3</v>
+      </c>
+      <c r="Z33">
+        <v>5.8569766000000002E-2</v>
+      </c>
+      <c r="AA33">
+        <f t="shared" si="0"/>
+        <v>6.4786957347067728E-2</v>
+      </c>
+      <c r="AB33">
+        <v>6094145233</v>
+      </c>
+      <c r="AC33">
+        <v>250436562.80000001</v>
+      </c>
+      <c r="AD33">
+        <v>3.2268309589999999</v>
+      </c>
+      <c r="AE33">
+        <v>1.86174E-4</v>
+      </c>
+      <c r="AF33">
+        <v>4.5518529999999998E-3</v>
+      </c>
+      <c r="AG33">
+        <f t="shared" si="1"/>
+        <v>0.83628126948037951</v>
+      </c>
+      <c r="AH33">
+        <v>6095232171</v>
+      </c>
+      <c r="AI33">
+        <v>249349625</v>
+      </c>
+      <c r="AJ33">
+        <v>90.483930830000006</v>
+      </c>
+      <c r="AK33" s="1">
+        <v>7.8499999999999994E-6</v>
+      </c>
+      <c r="AL33">
+        <v>1.9192600000000001E-4</v>
+      </c>
+      <c r="AM33">
+        <f t="shared" si="2"/>
+        <v>23.450257389850229</v>
+      </c>
+    </row>
+    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34">
+        <v>1002</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>5836781839</v>
+      </c>
+      <c r="E34">
+        <v>4.6213378909999996</v>
+      </c>
+      <c r="F34">
+        <v>1185</v>
+      </c>
+      <c r="G34">
+        <v>627</v>
+      </c>
+      <c r="H34">
+        <v>1200</v>
+      </c>
+      <c r="I34" t="s">
+        <v>40</v>
+      </c>
+      <c r="J34">
+        <v>1.913875598</v>
+      </c>
+      <c r="K34">
+        <v>503.29031559999999</v>
+      </c>
+      <c r="L34" s="1">
+        <v>8.0499999999999992E-6</v>
+      </c>
+      <c r="M34">
+        <v>25.351563049999999</v>
+      </c>
+      <c r="N34">
+        <v>6085385927</v>
+      </c>
+      <c r="O34">
+        <v>248604088.40000001</v>
+      </c>
+      <c r="P34">
+        <v>5690981687</v>
+      </c>
+      <c r="Q34">
+        <v>394404240.19999999</v>
+      </c>
+      <c r="R34">
+        <v>4.3674231000000001E-2</v>
+      </c>
+      <c r="S34">
+        <v>2.4979544999999999E-2</v>
+      </c>
+      <c r="T34">
+        <v>0.58647527799999999</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="4"/>
+        <v>9.4505599958520769E-3</v>
+      </c>
+      <c r="V34">
+        <v>5823139204</v>
+      </c>
+      <c r="W34">
+        <v>262246723</v>
+      </c>
+      <c r="X34">
+        <v>0.299520016</v>
+      </c>
+      <c r="Y34">
+        <v>2.3373560000000001E-3</v>
+      </c>
+      <c r="Z34">
+        <v>5.4876952E-2</v>
+      </c>
+      <c r="AA34">
+        <f t="shared" si="0"/>
+        <v>6.4812403478073238E-2</v>
+      </c>
+      <c r="AB34">
+        <v>5835741624</v>
+      </c>
+      <c r="AC34">
+        <v>249644303.59999999</v>
+      </c>
+      <c r="AD34">
+        <v>3.395961523</v>
+      </c>
+      <c r="AE34">
+        <v>1.7821699999999999E-4</v>
+      </c>
+      <c r="AF34">
+        <v>4.1842240000000003E-3</v>
+      </c>
+      <c r="AG34">
+        <f t="shared" si="1"/>
+        <v>0.73484380564632479</v>
+      </c>
+      <c r="AH34">
+        <v>5836736797</v>
+      </c>
+      <c r="AI34">
+        <v>248649130.80000001</v>
+      </c>
+      <c r="AJ34">
+        <v>120.7175019</v>
+      </c>
+      <c r="AK34" s="1">
+        <v>7.7200000000000006E-6</v>
+      </c>
+      <c r="AL34">
+        <v>1.8118100000000001E-4</v>
+      </c>
+      <c r="AM34">
+        <f t="shared" si="2"/>
+        <v>26.121764897367903</v>
+      </c>
+    </row>
+    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35">
+        <v>1003</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>5781176026</v>
+      </c>
+      <c r="E35">
+        <v>4.8777315620000001</v>
+      </c>
+      <c r="F35">
+        <v>1331</v>
+      </c>
+      <c r="G35">
+        <v>621</v>
+      </c>
+      <c r="H35">
+        <v>1200</v>
+      </c>
+      <c r="I35">
+        <v>3002.3154869999998</v>
+      </c>
+      <c r="J35">
+        <v>1.9323671499999999</v>
+      </c>
+      <c r="K35">
+        <v>583.76453160000005</v>
+      </c>
+      <c r="L35" s="1">
+        <v>1.3999999999999999E-6</v>
+      </c>
+      <c r="M35">
+        <v>25.23363316</v>
+      </c>
+      <c r="N35">
+        <v>6270230862</v>
+      </c>
+      <c r="O35">
+        <v>489054835.30000001</v>
+      </c>
+      <c r="P35">
+        <v>5640123356</v>
+      </c>
+      <c r="Q35">
+        <v>630107505.89999998</v>
+      </c>
+      <c r="R35">
+        <v>3.1247139E-2</v>
+      </c>
+      <c r="S35">
+        <v>2.4398612E-2</v>
+      </c>
+      <c r="T35">
+        <v>0.28841892699999999</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="4"/>
+        <v>6.406080081042393E-3</v>
+      </c>
+      <c r="V35">
+        <v>5767746829</v>
+      </c>
+      <c r="W35">
+        <v>502484032.19999999</v>
+      </c>
+      <c r="X35">
+        <v>0.296837568</v>
+      </c>
+      <c r="Y35">
+        <v>2.3229180000000002E-3</v>
+      </c>
+      <c r="Z35">
+        <v>2.7459490999999999E-2</v>
+      </c>
+      <c r="AA35">
+        <f t="shared" si="0"/>
+        <v>6.0855658870716672E-2</v>
+      </c>
+      <c r="AB35">
+        <v>5780137930</v>
+      </c>
+      <c r="AC35">
+        <v>490092931.30000001</v>
+      </c>
+      <c r="AD35">
+        <v>3.5239880079999999</v>
+      </c>
+      <c r="AE35">
+        <v>1.7956499999999999E-4</v>
+      </c>
+      <c r="AF35">
+        <v>2.1226579999999999E-3</v>
+      </c>
+      <c r="AG35">
+        <f t="shared" si="1"/>
+        <v>0.72246452335623623</v>
+      </c>
+      <c r="AH35">
+        <v>5781129754</v>
+      </c>
+      <c r="AI35">
+        <v>489101107.10000002</v>
+      </c>
+      <c r="AJ35">
+        <v>85.957975149999996</v>
+      </c>
+      <c r="AK35" s="1">
+        <v>7.9999999999999996E-6</v>
+      </c>
+      <c r="AL35" s="1">
+        <v>9.4599999999999996E-5</v>
+      </c>
+      <c r="AM35">
+        <f t="shared" si="2"/>
+        <v>17.622530895233385</v>
+      </c>
+    </row>
+    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36">
+        <v>1004</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>6273812134</v>
+      </c>
+      <c r="E36">
+        <v>4.7030005460000002</v>
+      </c>
+      <c r="F36">
+        <v>1303</v>
+      </c>
+      <c r="G36">
+        <v>612</v>
+      </c>
+      <c r="H36">
+        <v>1200</v>
+      </c>
+      <c r="I36">
+        <v>1202.163918</v>
+      </c>
+      <c r="J36">
+        <v>1.9607843140000001</v>
+      </c>
+      <c r="K36">
+        <v>405.59788989999998</v>
+      </c>
+      <c r="L36" s="1">
+        <v>4.6199999999999998E-6</v>
+      </c>
+      <c r="M36">
+        <v>24.684963809999999</v>
+      </c>
+      <c r="N36">
+        <v>6532617316</v>
+      </c>
+      <c r="O36">
+        <v>258805181.69999999</v>
+      </c>
+      <c r="P36">
+        <v>6115780998</v>
+      </c>
+      <c r="Q36">
+        <v>416836318.39999998</v>
+      </c>
+      <c r="R36">
+        <v>3.1247139E-2</v>
+      </c>
+      <c r="S36">
+        <v>2.5189013E-2</v>
+      </c>
+      <c r="T36">
+        <v>0.61061813200000004</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="4"/>
+        <v>6.6440857691535552E-3</v>
+      </c>
+      <c r="V36">
+        <v>6259089210</v>
+      </c>
+      <c r="W36">
+        <v>273528106.10000002</v>
+      </c>
+      <c r="X36">
+        <v>0.249981642</v>
+      </c>
+      <c r="Y36">
+        <v>2.3467269999999998E-3</v>
+      </c>
+      <c r="Z36">
+        <v>5.6888058999999998E-2</v>
+      </c>
+      <c r="AA36">
+        <f t="shared" si="0"/>
+        <v>5.3153649368085781E-2</v>
+      </c>
+      <c r="AB36">
+        <v>6272720764</v>
+      </c>
+      <c r="AC36">
+        <v>259896552.30000001</v>
+      </c>
+      <c r="AD36">
+        <v>3.217735529</v>
+      </c>
+      <c r="AE36">
+        <v>1.73957E-4</v>
+      </c>
+      <c r="AF36">
+        <v>4.2169579999999998E-3</v>
+      </c>
+      <c r="AG36">
+        <f t="shared" si="1"/>
+        <v>0.68418778554826043</v>
+      </c>
+      <c r="AH36">
+        <v>6273766304</v>
+      </c>
+      <c r="AI36">
+        <v>258851011.90000001</v>
+      </c>
+      <c r="AJ36">
+        <v>98.139161830000006</v>
+      </c>
+      <c r="AK36" s="1">
+        <v>7.3000000000000004E-6</v>
+      </c>
+      <c r="AL36">
+        <v>1.7708399999999999E-4</v>
+      </c>
+      <c r="AM36">
+        <f t="shared" si="2"/>
+        <v>20.867350720056667</v>
+      </c>
+    </row>
+    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37">
+        <v>1005</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>6099828858</v>
+      </c>
+      <c r="E37">
+        <v>4.4102098940000003</v>
+      </c>
+      <c r="F37">
+        <v>1128</v>
+      </c>
+      <c r="G37">
+        <v>625</v>
+      </c>
+      <c r="H37">
+        <v>1200</v>
+      </c>
+      <c r="I37" t="s">
+        <v>40</v>
+      </c>
+      <c r="J37">
+        <v>1.92</v>
+      </c>
+      <c r="K37">
+        <v>978.30904439999995</v>
+      </c>
+      <c r="L37" s="1">
+        <v>1.8899999999999999E-6</v>
+      </c>
+      <c r="M37">
+        <v>39.211948659999997</v>
+      </c>
+      <c r="N37">
+        <v>6386270445</v>
+      </c>
+      <c r="O37">
+        <v>286441586.10000002</v>
+      </c>
+      <c r="P37">
+        <v>5945875245</v>
+      </c>
+      <c r="Q37">
+        <v>440395199.89999998</v>
+      </c>
+      <c r="R37">
+        <v>4.6874523000000001E-2</v>
+      </c>
+      <c r="S37">
+        <v>2.5239004999999998E-2</v>
+      </c>
+      <c r="T37">
+        <v>0.53746949200000005</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="4"/>
+        <v>1.0628637667284686E-2</v>
+      </c>
+      <c r="V37">
+        <v>6085253274</v>
+      </c>
+      <c r="W37">
+        <v>301017170.39999998</v>
+      </c>
+      <c r="X37">
+        <v>0.24690508799999999</v>
+      </c>
+      <c r="Y37">
+        <v>2.3895069999999999E-3</v>
+      </c>
+      <c r="Z37">
+        <v>5.0885013999999999E-2</v>
+      </c>
+      <c r="AA37">
+        <f t="shared" si="0"/>
+        <v>5.598488369814536E-2</v>
+      </c>
+      <c r="AB37">
+        <v>6098711347</v>
+      </c>
+      <c r="AC37">
+        <v>287559097.5</v>
+      </c>
+      <c r="AD37">
+        <v>3.378181219</v>
+      </c>
+      <c r="AE37">
+        <v>1.8320399999999999E-4</v>
+      </c>
+      <c r="AF37">
+        <v>3.9013590000000001E-3</v>
+      </c>
+      <c r="AG37">
+        <f t="shared" si="1"/>
+        <v>0.76599102994983204</v>
+      </c>
+      <c r="AH37">
+        <v>6099779699</v>
+      </c>
+      <c r="AI37">
+        <v>286490745.30000001</v>
+      </c>
+      <c r="AJ37">
+        <v>102.0229161</v>
+      </c>
+      <c r="AK37" s="1">
+        <v>8.0600000000000008E-6</v>
+      </c>
+      <c r="AL37">
+        <v>1.7161999999999999E-4</v>
+      </c>
+      <c r="AM37">
+        <f t="shared" si="2"/>
+        <v>23.133347063322333</v>
+      </c>
+    </row>
+    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>78</v>
+      </c>
+      <c r="B38">
+        <v>1006</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>6040502133</v>
+      </c>
+      <c r="E38">
+        <v>4.8640274999999997</v>
+      </c>
+      <c r="F38">
+        <v>1273</v>
+      </c>
+      <c r="G38">
+        <v>625</v>
+      </c>
+      <c r="H38">
+        <v>1200</v>
+      </c>
+      <c r="I38" t="s">
+        <v>40</v>
+      </c>
+      <c r="J38">
+        <v>1.92</v>
+      </c>
+      <c r="K38">
+        <v>590.90820450000001</v>
+      </c>
+      <c r="L38" s="1">
+        <v>1.3899999999999999E-7</v>
+      </c>
+      <c r="M38">
+        <v>26.611667279999999</v>
+      </c>
+      <c r="N38">
+        <v>6312547635</v>
+      </c>
+      <c r="O38">
+        <v>272045501.39999998</v>
+      </c>
+      <c r="P38">
+        <v>5889362508</v>
+      </c>
+      <c r="Q38">
+        <v>423185127</v>
+      </c>
+      <c r="R38">
+        <v>5.4740905999999999E-2</v>
+      </c>
+      <c r="S38">
+        <v>2.5021036999999999E-2</v>
+      </c>
+      <c r="T38">
+        <v>0.55556745100000005</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="4"/>
+        <v>1.1254234479554238E-2</v>
+      </c>
+      <c r="V38">
+        <v>6026429375</v>
+      </c>
+      <c r="W38">
+        <v>286118259.69999999</v>
+      </c>
+      <c r="X38">
+        <v>0.30438637699999999</v>
+      </c>
+      <c r="Y38">
+        <v>2.3297330000000001E-3</v>
+      </c>
+      <c r="Z38">
+        <v>5.1729429E-2</v>
+      </c>
+      <c r="AA38">
+        <f t="shared" si="0"/>
+        <v>6.2579082252310458E-2</v>
+      </c>
+      <c r="AB38">
+        <v>6039437570</v>
+      </c>
+      <c r="AC38">
+        <v>273110064.39999998</v>
+      </c>
+      <c r="AD38">
+        <v>3.907151222</v>
+      </c>
+      <c r="AE38">
+        <v>1.7623699999999999E-4</v>
+      </c>
+      <c r="AF38">
+        <v>3.9131799999999996E-3</v>
+      </c>
+      <c r="AG38">
+        <f t="shared" si="1"/>
+        <v>0.8032749037705893</v>
+      </c>
+      <c r="AH38">
+        <v>6040457011</v>
+      </c>
+      <c r="AI38">
+        <v>272090623.60000002</v>
+      </c>
+      <c r="AJ38">
+        <v>123.2933824</v>
+      </c>
+      <c r="AK38" s="1">
+        <v>7.4699999999999996E-6</v>
+      </c>
+      <c r="AL38">
+        <v>1.6586300000000001E-4</v>
+      </c>
+      <c r="AM38">
+        <f t="shared" si="2"/>
+        <v>25.348002740527271</v>
+      </c>
+    </row>
+    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39">
+        <v>1007</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>5882417065</v>
+      </c>
+      <c r="E39">
+        <v>4.5200762750000001</v>
+      </c>
+      <c r="F39">
+        <v>1242</v>
+      </c>
+      <c r="G39">
+        <v>606</v>
+      </c>
+      <c r="H39">
+        <v>1200</v>
+      </c>
+      <c r="I39" t="s">
+        <v>40</v>
+      </c>
+      <c r="J39">
+        <v>1.98019802</v>
+      </c>
+      <c r="K39">
+        <v>802.61725049999995</v>
+      </c>
+      <c r="L39" s="1">
+        <v>2.9500000000000001E-6</v>
+      </c>
+      <c r="M39">
+        <v>33.552849909999999</v>
+      </c>
+      <c r="N39">
+        <v>6255575500</v>
+      </c>
+      <c r="O39">
+        <v>373158434.89999998</v>
+      </c>
+      <c r="P39">
+        <v>5734525318</v>
+      </c>
+      <c r="Q39">
+        <v>521050181.19999999</v>
+      </c>
+      <c r="R39">
+        <v>4.433322E-2</v>
+      </c>
+      <c r="S39">
+        <v>2.5141323E-2</v>
+      </c>
+      <c r="T39">
+        <v>0.39632427599999998</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="4"/>
+        <v>9.8080690021099259E-3</v>
+      </c>
+      <c r="V39">
+        <v>5868363343</v>
+      </c>
+      <c r="W39">
+        <v>387212156.5</v>
+      </c>
+      <c r="X39">
+        <v>0.24996876700000001</v>
+      </c>
+      <c r="Y39">
+        <v>2.3891070000000001E-3</v>
+      </c>
+      <c r="Z39">
+        <v>3.7661541E-2</v>
+      </c>
+      <c r="AA39">
+        <f t="shared" si="0"/>
+        <v>5.5301891338105792E-2</v>
+      </c>
+      <c r="AB39">
+        <v>5881364577</v>
+      </c>
+      <c r="AC39">
+        <v>374210922.80000001</v>
+      </c>
+      <c r="AD39">
+        <v>3.4654817580000001</v>
+      </c>
+      <c r="AE39">
+        <v>1.7892099999999999E-4</v>
+      </c>
+      <c r="AF39">
+        <v>2.8204850000000002E-3</v>
+      </c>
+      <c r="AG39">
+        <f t="shared" si="1"/>
+        <v>0.76668656614649722</v>
+      </c>
+      <c r="AH39">
+        <v>5882369945</v>
+      </c>
+      <c r="AI39">
+        <v>373205554.5</v>
+      </c>
+      <c r="AJ39">
+        <v>109.9783633</v>
+      </c>
+      <c r="AK39" s="1">
+        <v>8.0099999999999995E-6</v>
+      </c>
+      <c r="AL39">
+        <v>1.26272E-4</v>
+      </c>
+      <c r="AM39">
+        <f t="shared" si="2"/>
+        <v>24.331085718238239</v>
+      </c>
+    </row>
+    <row r="40" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40">
+        <v>1008</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>6128996151</v>
+      </c>
+      <c r="E40">
+        <v>4.8035337919999996</v>
+      </c>
+      <c r="F40">
+        <v>1289</v>
+      </c>
+      <c r="G40">
+        <v>606</v>
+      </c>
+      <c r="H40">
+        <v>1200</v>
+      </c>
+      <c r="I40">
+        <v>3611.0381750000001</v>
+      </c>
+      <c r="J40">
+        <v>1.98019802</v>
+      </c>
+      <c r="K40">
+        <v>790.30643239999995</v>
+      </c>
+      <c r="L40" s="1">
+        <v>2.3800000000000001E-6</v>
+      </c>
+      <c r="M40">
+        <v>32.989626229999999</v>
+      </c>
+      <c r="N40">
+        <v>6340140325</v>
+      </c>
+      <c r="O40">
+        <v>211144174.59999999</v>
+      </c>
+      <c r="P40">
+        <v>5976665781</v>
+      </c>
+      <c r="Q40">
+        <v>363474544.39999998</v>
+      </c>
+      <c r="R40">
+        <v>4.1376113999999999E-2</v>
+      </c>
+      <c r="S40">
+        <v>2.4854049E-2</v>
+      </c>
+      <c r="T40">
+        <v>0.72145191799999997</v>
+      </c>
+      <c r="U40">
+        <f t="shared" si="4"/>
+        <v>8.6136822996664367E-3</v>
+      </c>
+      <c r="V40">
+        <v>6114816414</v>
+      </c>
+      <c r="W40">
+        <v>225323911.40000001</v>
+      </c>
+      <c r="X40">
+        <v>0.265606642</v>
+      </c>
+      <c r="Y40">
+        <v>2.3135500000000002E-3</v>
+      </c>
+      <c r="Z40">
+        <v>6.7156655999999995E-2</v>
+      </c>
+      <c r="AA40">
+        <f t="shared" si="0"/>
+        <v>5.5294009265085653E-2</v>
+      </c>
+      <c r="AB40">
+        <v>6127921786</v>
+      </c>
+      <c r="AC40">
+        <v>212218539.19999999</v>
+      </c>
+      <c r="AD40">
+        <v>4.2077934739999998</v>
+      </c>
+      <c r="AE40">
+        <v>1.7529199999999999E-4</v>
+      </c>
+      <c r="AF40">
+        <v>5.0882990000000001E-3</v>
+      </c>
+      <c r="AG40">
+        <f t="shared" si="1"/>
+        <v>0.87597873902913514</v>
+      </c>
+      <c r="AH40">
+        <v>6128951075</v>
+      </c>
+      <c r="AI40">
+        <v>211189250.5</v>
+      </c>
+      <c r="AJ40">
+        <v>233.88434100000001</v>
+      </c>
+      <c r="AK40" s="1">
+        <v>7.3499999999999999E-6</v>
+      </c>
+      <c r="AL40">
+        <v>2.13484E-4</v>
+      </c>
+      <c r="AM40">
+        <f t="shared" si="2"/>
+        <v>48.690058429383903</v>
+      </c>
+    </row>
+    <row r="41" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41">
+        <v>1009</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>5766933831</v>
+      </c>
+      <c r="E41">
+        <v>4.1582562919999999</v>
+      </c>
+      <c r="F41">
+        <v>1145</v>
+      </c>
+      <c r="G41">
+        <v>610</v>
+      </c>
+      <c r="H41">
+        <v>1200</v>
+      </c>
+      <c r="I41" t="s">
+        <v>40</v>
+      </c>
+      <c r="J41">
+        <v>1.9672131150000001</v>
+      </c>
+      <c r="K41">
+        <v>856.4239298</v>
+      </c>
+      <c r="L41" s="1">
+        <v>4.4800000000000003E-6</v>
+      </c>
+      <c r="M41">
+        <v>35.159769130000001</v>
+      </c>
+      <c r="N41">
+        <v>6122178637</v>
+      </c>
+      <c r="O41">
+        <v>355244806.39999998</v>
+      </c>
+      <c r="P41">
+        <v>5624034022</v>
+      </c>
+      <c r="Q41">
+        <v>498144615.5</v>
+      </c>
+      <c r="R41">
+        <v>4.6873808000000003E-2</v>
+      </c>
+      <c r="S41">
+        <v>2.4779165999999998E-2</v>
+      </c>
+      <c r="T41">
+        <v>0.40225727900000002</v>
+      </c>
+      <c r="U41">
+        <f t="shared" si="4"/>
+        <v>1.1272467281581404E-2</v>
+      </c>
+      <c r="V41">
+        <v>5753285075</v>
+      </c>
+      <c r="W41">
+        <v>368893562.19999999</v>
+      </c>
+      <c r="X41">
+        <v>0.24998378800000001</v>
+      </c>
+      <c r="Y41">
+        <v>2.3667269999999999E-3</v>
+      </c>
+      <c r="Z41">
+        <v>3.8420704999999999E-2</v>
+      </c>
+      <c r="AA41">
+        <f t="shared" si="0"/>
+        <v>6.0117455598140898E-2</v>
+      </c>
+      <c r="AB41">
+        <v>5765880323</v>
+      </c>
+      <c r="AC41">
+        <v>356298314.39999998</v>
+      </c>
+      <c r="AD41">
+        <v>3.308107138</v>
+      </c>
+      <c r="AE41">
+        <v>1.8268099999999999E-4</v>
+      </c>
+      <c r="AF41">
+        <v>2.9655829999999999E-3</v>
+      </c>
+      <c r="AG41">
+        <f t="shared" si="1"/>
+        <v>0.79555152585578048</v>
+      </c>
+      <c r="AH41">
+        <v>5766887447</v>
+      </c>
+      <c r="AI41">
+        <v>355291190.69999999</v>
+      </c>
+      <c r="AJ41">
+        <v>115.84029339999999</v>
+      </c>
+      <c r="AK41" s="1">
+        <v>8.0399999999999993E-6</v>
+      </c>
+      <c r="AL41">
+        <v>1.3056999999999999E-4</v>
+      </c>
+      <c r="AM41">
+        <f t="shared" si="2"/>
+        <v>27.857901308984538</v>
+      </c>
+    </row>
+    <row r="42" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42">
+        <v>1000</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>44775135587</v>
+      </c>
+      <c r="E42">
+        <v>16.882469650000001</v>
+      </c>
+      <c r="F42">
+        <v>2054</v>
+      </c>
+      <c r="G42">
+        <v>1014</v>
+      </c>
+      <c r="H42">
+        <v>2000</v>
+      </c>
+      <c r="I42">
+        <v>3382.2559230000002</v>
+      </c>
+      <c r="J42">
+        <v>1.972386588</v>
+      </c>
+      <c r="K42">
+        <v>946.42068370000004</v>
+      </c>
+      <c r="L42" s="1">
+        <v>8.6799999999999999E-7</v>
+      </c>
+      <c r="M42">
+        <v>37.116941629999999</v>
+      </c>
+      <c r="N42">
+        <v>47569138560</v>
+      </c>
+      <c r="O42">
+        <v>2794002973</v>
+      </c>
+      <c r="P42">
+        <v>44104765647</v>
+      </c>
+      <c r="Q42">
+        <v>3464372913</v>
+      </c>
+      <c r="R42">
+        <v>0.218748093</v>
+      </c>
+      <c r="S42">
+        <v>1.4971923999999999E-2</v>
+      </c>
+      <c r="T42">
+        <v>0.23993171999999999</v>
+      </c>
+      <c r="U42">
+        <f t="shared" si="4"/>
+        <v>1.2957114541591964E-2</v>
+      </c>
+      <c r="V42">
+        <v>44710381745</v>
+      </c>
+      <c r="W42">
+        <v>2858756815</v>
+      </c>
+      <c r="X42">
+        <v>0.56545948999999995</v>
+      </c>
+      <c r="Y42">
+        <v>1.446201E-3</v>
+      </c>
+      <c r="Z42">
+        <v>2.317601E-2</v>
+      </c>
+      <c r="AA42">
+        <f t="shared" si="0"/>
+        <v>3.3493884586962661E-2</v>
+      </c>
+      <c r="AB42">
+        <v>44769881400</v>
+      </c>
+      <c r="AC42">
+        <v>2799257160</v>
+      </c>
+      <c r="AD42">
+        <v>15.441611290000001</v>
+      </c>
+      <c r="AE42">
+        <v>1.17346E-4</v>
+      </c>
+      <c r="AF42">
+        <v>1.880523E-3</v>
+      </c>
+      <c r="AG42">
+        <f t="shared" si="1"/>
+        <v>0.91465357913437739</v>
+      </c>
+      <c r="AH42">
+        <v>44774869262</v>
+      </c>
+      <c r="AI42">
+        <v>2794269298</v>
+      </c>
+      <c r="AJ42">
+        <v>730.80157780000002</v>
+      </c>
+      <c r="AK42" s="1">
+        <v>5.9499999999999998E-6</v>
+      </c>
+      <c r="AL42" s="1">
+        <v>9.5299999999999999E-5</v>
+      </c>
+      <c r="AM42">
+        <f t="shared" si="2"/>
+        <v>43.287599086547146</v>
+      </c>
+    </row>
+    <row r="43" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43">
+        <v>1001</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>44820589684</v>
+      </c>
+      <c r="E43">
+        <v>18.16570544</v>
+      </c>
+      <c r="F43">
+        <v>2387</v>
+      </c>
+      <c r="G43">
+        <v>1009</v>
+      </c>
+      <c r="H43">
+        <v>2000</v>
+      </c>
+      <c r="I43">
+        <v>2981.469869</v>
+      </c>
+      <c r="J43">
+        <v>1.9821605550000001</v>
+      </c>
+      <c r="K43">
+        <v>1615.0244889999999</v>
+      </c>
+      <c r="L43" s="1">
+        <v>1.3300000000000001E-7</v>
+      </c>
+      <c r="M43">
+        <v>51.17031489</v>
+      </c>
+      <c r="N43">
+        <v>47388001155</v>
+      </c>
+      <c r="O43">
+        <v>2567411472</v>
+      </c>
+      <c r="P43">
+        <v>44129288311</v>
+      </c>
+      <c r="Q43">
+        <v>3258712845</v>
+      </c>
+      <c r="R43">
+        <v>7.7848195999999995E-2</v>
+      </c>
+      <c r="S43">
+        <v>1.5423746E-2</v>
+      </c>
+      <c r="T43">
+        <v>0.26926006200000002</v>
+      </c>
+      <c r="U43">
+        <f t="shared" si="4"/>
+        <v>4.2854485479315351E-3</v>
+      </c>
+      <c r="V43">
+        <v>44753695242</v>
+      </c>
+      <c r="W43">
+        <v>2634305914</v>
+      </c>
+      <c r="X43">
+        <v>0.42184066799999997</v>
+      </c>
+      <c r="Y43">
+        <v>1.492494E-3</v>
+      </c>
+      <c r="Z43">
+        <v>2.6055208999999999E-2</v>
+      </c>
+      <c r="AA43">
+        <f t="shared" si="0"/>
+        <v>2.3221815931856262E-2</v>
+      </c>
+      <c r="AB43">
+        <v>44815074966</v>
+      </c>
+      <c r="AC43">
+        <v>2572926190</v>
+      </c>
+      <c r="AD43">
+        <v>9.054578781</v>
+      </c>
+      <c r="AE43">
+        <v>1.2303999999999999E-4</v>
+      </c>
+      <c r="AF43">
+        <v>2.1479680000000001E-3</v>
+      </c>
+      <c r="AG43">
+        <f t="shared" si="1"/>
+        <v>0.49844355403133744</v>
+      </c>
+      <c r="AH43">
+        <v>44820311297</v>
+      </c>
+      <c r="AI43">
+        <v>2567689858</v>
+      </c>
+      <c r="AJ43">
+        <v>224.396131</v>
+      </c>
+      <c r="AK43" s="1">
+        <v>6.2099999999999998E-6</v>
+      </c>
+      <c r="AL43">
+        <v>1.0843100000000001E-4</v>
+      </c>
+      <c r="AM43">
+        <f t="shared" si="2"/>
+        <v>12.352734207937262</v>
+      </c>
+    </row>
+    <row r="44" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44">
+        <v>1002</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>45683020604</v>
+      </c>
+      <c r="E44">
+        <v>21.863907340000001</v>
+      </c>
+      <c r="F44">
+        <v>2931</v>
+      </c>
+      <c r="G44">
+        <v>1027</v>
+      </c>
+      <c r="H44">
+        <v>2000</v>
+      </c>
+      <c r="I44">
+        <v>181016.2102</v>
+      </c>
+      <c r="J44">
+        <v>1.9474196690000001</v>
+      </c>
+      <c r="K44">
+        <v>996.70711119999999</v>
+      </c>
+      <c r="L44" s="1">
+        <v>9.33E-7</v>
+      </c>
+      <c r="M44">
+        <v>36.104541689999998</v>
+      </c>
+      <c r="N44">
+        <v>48687422150</v>
+      </c>
+      <c r="O44">
+        <v>3004401546</v>
+      </c>
+      <c r="P44">
+        <v>44989077423</v>
+      </c>
+      <c r="Q44">
+        <v>3698344727</v>
+      </c>
+      <c r="R44">
+        <v>7.2510004000000003E-2</v>
+      </c>
+      <c r="S44">
+        <v>1.5190396E-2</v>
+      </c>
+      <c r="T44">
+        <v>0.23097551099999999</v>
+      </c>
+      <c r="U44">
+        <f t="shared" si="4"/>
+        <v>3.3164247758836322E-3</v>
+      </c>
+      <c r="V44">
+        <v>45616043860</v>
+      </c>
+      <c r="W44">
+        <v>3071378290</v>
+      </c>
+      <c r="X44">
+        <v>0.49787211399999998</v>
+      </c>
+      <c r="Y44">
+        <v>1.4661190000000001E-3</v>
+      </c>
+      <c r="Z44">
+        <v>2.2292874000000001E-2</v>
+      </c>
+      <c r="AA44">
+        <f t="shared" si="0"/>
+        <v>2.2771415294517983E-2</v>
+      </c>
+      <c r="AB44">
+        <v>45677500236</v>
+      </c>
+      <c r="AC44">
+        <v>3009921914</v>
+      </c>
+      <c r="AD44">
+        <v>10.09346938</v>
+      </c>
+      <c r="AE44">
+        <v>1.20841E-4</v>
+      </c>
+      <c r="AF44">
+        <v>1.837427E-3</v>
+      </c>
+      <c r="AG44">
+        <f t="shared" si="1"/>
+        <v>0.46164984250248836</v>
+      </c>
+      <c r="AH44">
+        <v>45682738085</v>
+      </c>
+      <c r="AI44">
+        <v>3004684065</v>
+      </c>
+      <c r="AJ44">
+        <v>284.95148610000001</v>
+      </c>
+      <c r="AK44" s="1">
+        <v>6.1800000000000001E-6</v>
+      </c>
+      <c r="AL44" s="1">
+        <v>9.3999999999999994E-5</v>
+      </c>
+      <c r="AM44">
+        <f t="shared" si="2"/>
+        <v>13.032962574749002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>85</v>
+      </c>
+      <c r="B45">
+        <v>1003</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>44955482845</v>
+      </c>
+      <c r="E45">
+        <v>19.77652192</v>
+      </c>
+      <c r="F45">
+        <v>2500</v>
+      </c>
+      <c r="G45">
+        <v>1015</v>
+      </c>
+      <c r="H45">
+        <v>2000</v>
+      </c>
+      <c r="I45">
+        <v>2011.1934679999999</v>
+      </c>
+      <c r="J45">
+        <v>1.97044335</v>
+      </c>
+      <c r="K45">
+        <v>1405.649889</v>
+      </c>
+      <c r="L45" s="1">
+        <v>1.77E-6</v>
+      </c>
+      <c r="M45">
+        <v>44.69042864</v>
+      </c>
+      <c r="N45">
+        <v>47357790148</v>
+      </c>
+      <c r="O45">
+        <v>2402307303</v>
+      </c>
+      <c r="P45">
+        <v>44260846516</v>
+      </c>
+      <c r="Q45">
+        <v>3096943631</v>
+      </c>
+      <c r="R45">
+        <v>7.8117847000000004E-2</v>
+      </c>
+      <c r="S45">
+        <v>1.5451649E-2</v>
+      </c>
+      <c r="T45">
+        <v>0.28915381800000001</v>
+      </c>
+      <c r="U45">
+        <f t="shared" si="4"/>
+        <v>3.9500296015650459E-3</v>
+      </c>
+      <c r="V45">
+        <v>44889292491</v>
+      </c>
+      <c r="W45">
+        <v>2468497656</v>
+      </c>
+      <c r="X45">
+        <v>0.499949217</v>
+      </c>
+      <c r="Y45">
+        <v>1.472353E-3</v>
+      </c>
+      <c r="Z45">
+        <v>2.7552825E-2</v>
+      </c>
+      <c r="AA45">
+        <f t="shared" si="0"/>
+        <v>2.5279936432826507E-2</v>
+      </c>
+      <c r="AB45">
+        <v>44950003558</v>
+      </c>
+      <c r="AC45">
+        <v>2407786590</v>
+      </c>
+      <c r="AD45">
+        <v>14.20492101</v>
+      </c>
+      <c r="AE45">
+        <v>1.21883E-4</v>
+      </c>
+      <c r="AF45">
+        <v>2.2808440000000002E-3</v>
+      </c>
+      <c r="AG45">
+        <f t="shared" si="1"/>
+        <v>0.71827195234135488</v>
+      </c>
+      <c r="AH45">
+        <v>44955204966</v>
+      </c>
+      <c r="AI45">
+        <v>2402585182</v>
+      </c>
+      <c r="AJ45">
+        <v>561.72675089999996</v>
+      </c>
+      <c r="AK45" s="1">
+        <v>6.1800000000000001E-6</v>
+      </c>
+      <c r="AL45">
+        <v>1.15672E-4</v>
+      </c>
+      <c r="AM45">
+        <f t="shared" si="2"/>
+        <v>28.40371796275894</v>
+      </c>
+    </row>
+    <row r="46" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>86</v>
+      </c>
+      <c r="B46">
+        <v>1004</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>44721535958</v>
+      </c>
+      <c r="E46">
+        <v>21.865575549999999</v>
+      </c>
+      <c r="F46">
+        <v>2964</v>
+      </c>
+      <c r="G46">
+        <v>1029</v>
+      </c>
+      <c r="H46">
+        <v>2000</v>
+      </c>
+      <c r="I46" t="s">
+        <v>40</v>
+      </c>
+      <c r="J46">
+        <v>1.943634597</v>
+      </c>
+      <c r="K46">
+        <v>728.60463449999997</v>
+      </c>
+      <c r="L46" s="1">
+        <v>6.9999999999999997E-7</v>
+      </c>
+      <c r="M46">
+        <v>29.24669987</v>
+      </c>
+      <c r="N46">
+        <v>47712112520</v>
+      </c>
+      <c r="O46">
+        <v>2990576562</v>
+      </c>
+      <c r="P46">
+        <v>44046765916</v>
+      </c>
+      <c r="Q46">
+        <v>3665346604</v>
+      </c>
+      <c r="R46">
+        <v>6.2494754999999999E-2</v>
+      </c>
+      <c r="S46">
+        <v>1.5088257000000001E-2</v>
+      </c>
+      <c r="T46">
+        <v>0.22563209100000001</v>
+      </c>
+      <c r="U46">
+        <f t="shared" si="4"/>
+        <v>2.8581344615006029E-3</v>
+      </c>
+      <c r="V46">
+        <v>44656298658</v>
+      </c>
+      <c r="W46">
+        <v>3055813862</v>
+      </c>
+      <c r="X46">
+        <v>0.466830254</v>
+      </c>
+      <c r="Y46">
+        <v>1.458745E-3</v>
+      </c>
+      <c r="Z46">
+        <v>2.1814288000000001E-2</v>
+      </c>
+      <c r="AA46">
+        <f t="shared" si="0"/>
+        <v>2.1350009878884711E-2</v>
+      </c>
+      <c r="AB46">
+        <v>44716217806</v>
+      </c>
+      <c r="AC46">
+        <v>2995894713</v>
+      </c>
+      <c r="AD46">
+        <v>8.6712520120000001</v>
+      </c>
+      <c r="AE46">
+        <v>1.18917E-4</v>
+      </c>
+      <c r="AF46">
+        <v>1.778303E-3</v>
+      </c>
+      <c r="AG46">
+        <f t="shared" si="1"/>
+        <v>0.39657094743156673</v>
+      </c>
+      <c r="AH46">
+        <v>44721261453</v>
+      </c>
+      <c r="AI46">
+        <v>2990851067</v>
+      </c>
+      <c r="AJ46">
+        <v>199.1297319</v>
+      </c>
+      <c r="AK46" s="1">
+        <v>6.1399999999999997E-6</v>
+      </c>
+      <c r="AL46" s="1">
+        <v>9.1799999999999995E-5</v>
+      </c>
+      <c r="AM46">
+        <f t="shared" si="2"/>
+        <v>9.1069970440361914</v>
+      </c>
+    </row>
+    <row r="47" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>87</v>
+      </c>
+      <c r="B47">
+        <v>1005</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>45015698098</v>
+      </c>
+      <c r="E47">
+        <v>18.830482239999998</v>
+      </c>
+      <c r="F47">
+        <v>2283</v>
+      </c>
+      <c r="G47">
+        <v>1033</v>
+      </c>
+      <c r="H47">
+        <v>2000</v>
+      </c>
+      <c r="I47">
+        <v>2138.9858429999999</v>
+      </c>
+      <c r="J47">
+        <v>1.936108422</v>
+      </c>
+      <c r="K47">
+        <v>1085.3044130000001</v>
+      </c>
+      <c r="L47" s="1">
+        <v>1.31E-6</v>
+      </c>
+      <c r="M47">
+        <v>35.170285210000003</v>
+      </c>
+      <c r="N47">
+        <v>47732498616</v>
+      </c>
+      <c r="O47">
+        <v>2716800518</v>
+      </c>
+      <c r="P47">
+        <v>44332500964</v>
+      </c>
+      <c r="Q47">
+        <v>3399997652</v>
+      </c>
+      <c r="R47">
+        <v>7.8119754999999999E-2</v>
+      </c>
+      <c r="S47">
+        <v>1.5176864E-2</v>
+      </c>
+      <c r="T47">
+        <v>0.251471218</v>
+      </c>
+      <c r="U47">
+        <f t="shared" si="4"/>
+        <v>4.1485796276665085E-3</v>
+      </c>
+      <c r="V47">
+        <v>44950521068</v>
+      </c>
+      <c r="W47">
+        <v>2781977549</v>
+      </c>
+      <c r="X47">
+        <v>0.43746638300000001</v>
+      </c>
+      <c r="Y47">
+        <v>1.4478729999999999E-3</v>
+      </c>
+      <c r="Z47">
+        <v>2.3990363000000001E-2</v>
+      </c>
+      <c r="AA47">
+        <f t="shared" si="0"/>
+        <v>2.3231820482575175E-2</v>
+      </c>
+      <c r="AB47">
+        <v>45010287801</v>
+      </c>
+      <c r="AC47">
+        <v>2722210815</v>
+      </c>
+      <c r="AD47">
+        <v>8.0267479420000001</v>
+      </c>
+      <c r="AE47">
+        <v>1.2018700000000001E-4</v>
+      </c>
+      <c r="AF47">
+        <v>1.9914220000000001E-3</v>
+      </c>
+      <c r="AG47">
+        <f t="shared" si="1"/>
+        <v>0.42626353588276455</v>
+      </c>
+      <c r="AH47">
+        <v>45015416471</v>
+      </c>
+      <c r="AI47">
+        <v>2717082146</v>
+      </c>
+      <c r="AJ47">
+        <v>229.21120099999999</v>
+      </c>
+      <c r="AK47" s="1">
+        <v>6.2600000000000002E-6</v>
+      </c>
+      <c r="AL47">
+        <v>1.03662E-4</v>
+      </c>
+      <c r="AM47">
+        <f t="shared" si="2"/>
+        <v>12.172348964760236</v>
+      </c>
+    </row>
+    <row r="48" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>88</v>
+      </c>
+      <c r="B48">
+        <v>1006</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>44942271568</v>
+      </c>
+      <c r="E48">
+        <v>17.792802569999999</v>
+      </c>
+      <c r="F48">
+        <v>2148</v>
+      </c>
+      <c r="G48">
+        <v>1013</v>
+      </c>
+      <c r="H48">
+        <v>2000</v>
+      </c>
+      <c r="I48">
+        <v>2285.7902170000002</v>
+      </c>
+      <c r="J48">
+        <v>1.974333662</v>
+      </c>
+      <c r="K48">
+        <v>1265.374669</v>
+      </c>
+      <c r="L48" s="1">
+        <v>4.7599999999999997E-7</v>
+      </c>
+      <c r="M48">
+        <v>40.77008068</v>
+      </c>
+      <c r="N48">
+        <v>47387864493</v>
+      </c>
+      <c r="O48">
+        <v>2445592925</v>
+      </c>
+      <c r="P48">
+        <v>44242823379</v>
+      </c>
+      <c r="Q48">
+        <v>3145041114</v>
+      </c>
+      <c r="R48">
+        <v>6.2495707999999997E-2</v>
+      </c>
+      <c r="S48">
+        <v>1.5563258E-2</v>
+      </c>
+      <c r="T48">
+        <v>0.28600352200000001</v>
+      </c>
+      <c r="U48">
+        <f t="shared" si="4"/>
+        <v>3.5124150764968558E-3</v>
+      </c>
+      <c r="V48">
+        <v>44876023900</v>
+      </c>
+      <c r="W48">
+        <v>2511840593</v>
+      </c>
+      <c r="X48">
+        <v>0.43745446199999999</v>
+      </c>
+      <c r="Y48">
+        <v>1.474061E-3</v>
+      </c>
+      <c r="Z48">
+        <v>2.7088592000000002E-2</v>
+      </c>
+      <c r="AA48">
+        <f t="shared" si="0"/>
+        <v>2.4586034733931183E-2</v>
+      </c>
+      <c r="AB48">
+        <v>44936906937</v>
+      </c>
+      <c r="AC48">
+        <v>2450957556</v>
+      </c>
+      <c r="AD48">
+        <v>7.833996773</v>
+      </c>
+      <c r="AE48">
+        <v>1.19367E-4</v>
+      </c>
+      <c r="AF48">
+        <v>2.1935909999999999E-3</v>
+      </c>
+      <c r="AG48">
+        <f t="shared" si="1"/>
+        <v>0.44029020960468063</v>
+      </c>
+      <c r="AH48">
+        <v>44942006916</v>
+      </c>
+      <c r="AI48">
+        <v>2445857577</v>
+      </c>
+      <c r="AJ48">
+        <v>286.67539640000001</v>
+      </c>
+      <c r="AK48" s="1">
+        <v>5.8900000000000004E-6</v>
+      </c>
+      <c r="AL48">
+        <v>1.08216E-4</v>
+      </c>
+      <c r="AM48">
+        <f t="shared" si="2"/>
+        <v>16.111874184641167</v>
+      </c>
+    </row>
+    <row r="49" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>89</v>
+      </c>
+      <c r="B49">
+        <v>1007</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>44335073599</v>
+      </c>
+      <c r="E49">
+        <v>24.489820720000001</v>
+      </c>
+      <c r="F49">
+        <v>3269</v>
+      </c>
+      <c r="G49">
+        <v>1042</v>
+      </c>
+      <c r="H49">
+        <v>2000</v>
+      </c>
+      <c r="I49">
+        <v>2127.034099</v>
+      </c>
+      <c r="J49">
+        <v>1.9193857969999999</v>
+      </c>
+      <c r="K49">
+        <v>812.74492220000002</v>
+      </c>
+      <c r="L49" s="1">
+        <v>1.68E-6</v>
+      </c>
+      <c r="M49">
+        <v>34.64448539</v>
+      </c>
+      <c r="N49">
+        <v>46785056730</v>
+      </c>
+      <c r="O49">
+        <v>2449983131</v>
+      </c>
+      <c r="P49">
+        <v>43647256608</v>
+      </c>
+      <c r="Q49">
+        <v>3137800122</v>
+      </c>
+      <c r="R49">
+        <v>7.8118563000000002E-2</v>
+      </c>
+      <c r="S49">
+        <v>1.551406E-2</v>
+      </c>
+      <c r="T49">
+        <v>0.280743562</v>
+      </c>
+      <c r="U49">
+        <f t="shared" si="4"/>
+        <v>3.1898380920446362E-3</v>
+      </c>
+      <c r="V49">
+        <v>44268716528</v>
+      </c>
+      <c r="W49">
+        <v>2516340202</v>
+      </c>
+      <c r="X49">
+        <v>0.44037079800000001</v>
+      </c>
+      <c r="Y49">
+        <v>1.4967170000000001E-3</v>
+      </c>
+      <c r="Z49">
+        <v>2.7084705000000001E-2</v>
+      </c>
+      <c r="AA49">
+        <f t="shared" si="0"/>
+        <v>1.7981789374242507E-2</v>
+      </c>
+      <c r="AB49">
+        <v>44329797144</v>
+      </c>
+      <c r="AC49">
+        <v>2455259586</v>
+      </c>
+      <c r="AD49">
+        <v>7.7182078360000004</v>
+      </c>
+      <c r="AE49">
+        <v>1.1901299999999999E-4</v>
+      </c>
+      <c r="AF49">
+        <v>2.1536699999999999E-3</v>
+      </c>
+      <c r="AG49">
+        <f t="shared" si="1"/>
+        <v>0.315159834130464</v>
+      </c>
+      <c r="AH49">
+        <v>44334802206</v>
+      </c>
+      <c r="AI49">
+        <v>2450254523</v>
+      </c>
+      <c r="AJ49">
+        <v>167.54948400000001</v>
+      </c>
+      <c r="AK49" s="1">
+        <v>6.1199999999999999E-6</v>
+      </c>
+      <c r="AL49">
+        <v>1.10773E-4</v>
+      </c>
+      <c r="AM49">
+        <f t="shared" si="2"/>
+        <v>6.8415970012866634</v>
+      </c>
+    </row>
+    <row r="50" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>90</v>
+      </c>
+      <c r="B50">
+        <v>1008</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>45187035426</v>
+      </c>
+      <c r="E50">
+        <v>17.951982019999999</v>
+      </c>
+      <c r="F50">
+        <v>2142</v>
+      </c>
+      <c r="G50">
+        <v>996</v>
+      </c>
+      <c r="H50">
+        <v>2000</v>
+      </c>
+      <c r="I50">
+        <v>13692.858679999999</v>
+      </c>
+      <c r="J50">
+        <v>2.0080321290000001</v>
+      </c>
+      <c r="K50">
+        <v>620.47461650000002</v>
+      </c>
+      <c r="L50" s="1">
+        <v>1.4E-8</v>
+      </c>
+      <c r="M50">
+        <v>25.621315500000001</v>
+      </c>
+      <c r="N50">
+        <v>48222448525</v>
+      </c>
+      <c r="O50">
+        <v>3035413099</v>
+      </c>
+      <c r="P50">
+        <v>44501056325</v>
+      </c>
+      <c r="Q50">
+        <v>3721392200</v>
+      </c>
+      <c r="R50">
+        <v>7.8119516E-2</v>
+      </c>
+      <c r="S50">
+        <v>1.5180882999999999E-2</v>
+      </c>
+      <c r="T50">
+        <v>0.22599200799999999</v>
+      </c>
+      <c r="U50">
+        <f t="shared" si="4"/>
+        <v>4.3515816756594548E-3</v>
+      </c>
+      <c r="V50">
+        <v>45121668933</v>
+      </c>
+      <c r="W50">
+        <v>3100779592</v>
+      </c>
+      <c r="X50">
+        <v>0.453097582</v>
+      </c>
+      <c r="Y50">
+        <v>1.446576E-3</v>
+      </c>
+      <c r="Z50">
+        <v>2.1534628E-2</v>
+      </c>
+      <c r="AA50">
+        <f t="shared" si="0"/>
+        <v>2.5239418215504652E-2</v>
+      </c>
+      <c r="AB50">
+        <v>45181584067</v>
+      </c>
+      <c r="AC50">
+        <v>3040864458</v>
+      </c>
+      <c r="AD50">
+        <v>9.3093330860000005</v>
+      </c>
+      <c r="AE50">
+        <v>1.2064E-4</v>
+      </c>
+      <c r="AF50">
+        <v>1.7959199999999999E-3</v>
+      </c>
+      <c r="AG50">
+        <f t="shared" si="1"/>
+        <v>0.51856853887379284</v>
+      </c>
+      <c r="AH50">
+        <v>45186756362</v>
+      </c>
+      <c r="AI50">
+        <v>3035692163</v>
+      </c>
+      <c r="AJ50">
+        <v>497.953959</v>
+      </c>
+      <c r="AK50" s="1">
+        <v>6.1800000000000001E-6</v>
+      </c>
+      <c r="AL50" s="1">
+        <v>9.1899999999999998E-5</v>
+      </c>
+      <c r="AM50">
+        <f t="shared" si="2"/>
+        <v>27.738104820138407</v>
+      </c>
+    </row>
+    <row r="51" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>91</v>
+      </c>
+      <c r="B51">
+        <v>1009</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>44330598040</v>
+      </c>
+      <c r="E51">
+        <v>18.13135552</v>
+      </c>
+      <c r="F51">
+        <v>2255</v>
+      </c>
+      <c r="G51">
+        <v>1012</v>
+      </c>
+      <c r="H51">
+        <v>2000</v>
+      </c>
+      <c r="I51" t="s">
+        <v>40</v>
+      </c>
+      <c r="J51">
+        <v>1.9762845849999999</v>
+      </c>
+      <c r="K51">
+        <v>830.60640590000003</v>
+      </c>
+      <c r="L51" s="1">
+        <v>2.1299999999999999E-7</v>
+      </c>
+      <c r="M51">
+        <v>30.91199812</v>
+      </c>
+      <c r="N51">
+        <v>47138259782</v>
+      </c>
+      <c r="O51">
+        <v>2807661742</v>
+      </c>
+      <c r="P51">
+        <v>43655658753</v>
+      </c>
+      <c r="Q51">
+        <v>3482601029</v>
+      </c>
+      <c r="R51">
+        <v>6.2493801000000002E-2</v>
+      </c>
+      <c r="S51">
+        <v>1.5225134E-2</v>
+      </c>
+      <c r="T51">
+        <v>0.24039195199999999</v>
+      </c>
+      <c r="U51">
+        <f t="shared" si="4"/>
+        <v>3.4467252562041212E-3</v>
+      </c>
+      <c r="V51">
+        <v>44266118251</v>
+      </c>
+      <c r="W51">
+        <v>2872141531</v>
+      </c>
+      <c r="X51">
+        <v>0.46687889100000002</v>
+      </c>
+      <c r="Y51">
+        <v>1.4545210000000001E-3</v>
+      </c>
+      <c r="Z51">
+        <v>2.2965653999999999E-2</v>
+      </c>
+      <c r="AA51">
+        <f t="shared" si="0"/>
+        <v>2.5749806211951661E-2</v>
+      </c>
+      <c r="AB51">
+        <v>44325247050</v>
+      </c>
+      <c r="AC51">
+        <v>2813012732</v>
+      </c>
+      <c r="AD51">
+        <v>8.0619163510000007</v>
+      </c>
+      <c r="AE51">
+        <v>1.2070600000000001E-4</v>
+      </c>
+      <c r="AF51">
+        <v>1.9058530000000001E-3</v>
+      </c>
+      <c r="AG51">
+        <f t="shared" si="1"/>
+        <v>0.44463947232777007</v>
+      </c>
+      <c r="AH51">
+        <v>44330321319</v>
+      </c>
+      <c r="AI51">
+        <v>2807938463</v>
+      </c>
+      <c r="AJ51">
+        <v>195.12527589999999</v>
+      </c>
+      <c r="AK51" s="1">
+        <v>6.2400000000000004E-6</v>
+      </c>
+      <c r="AL51" s="1">
+        <v>9.8599999999999998E-5</v>
+      </c>
+      <c r="AM51">
+        <f t="shared" si="2"/>
+        <v>10.761758859383946</v>
       </c>
     </row>
   </sheetData>

--- a/SCLPsolver/results_reentrant_new2.xlsx
+++ b/SCLPsolver/results_reentrant_new2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataD\Work\CERBERO\CLP\SCLPsolver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89CE861F-C929-47A4-8D8A-FC85EA8E4DB5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6182B82-D8A0-41D3-AB11-18F7D1BE2F0B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="4380" windowWidth="25290" windowHeight="11655" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="summary (2)" sheetId="4" r:id="rId1"/>
@@ -3888,8 +3888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB4C9674-133F-42FE-90D7-EE809F6581C5}">
   <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M38" sqref="M38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4169,8 +4169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:N5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
